--- a/TESTING/legendre_out/DATA/p1/p1FitPoints.xlsx
+++ b/TESTING/legendre_out/DATA/p1/p1FitPoints.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F229"/>
+  <dimension ref="A1:D229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -382,16 +382,6 @@
           <t>fitOrder</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>splineX</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>splineY</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -408,12 +398,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E2" t="n">
-        <v>3.424536350759639</v>
-      </c>
-      <c r="F2" t="n">
-        <v>2.726124342772388e-05</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -430,12 +414,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E3" t="n">
-        <v>3.42877843536789</v>
-      </c>
-      <c r="F3" t="n">
-        <v>4.935353810599743e-05</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -452,12 +430,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E4" t="n">
-        <v>3.430466699343294</v>
-      </c>
-      <c r="F4" t="n">
-        <v>5.48462261798597e-05</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -474,12 +446,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E5" t="n">
-        <v>3.432206382526072</v>
-      </c>
-      <c r="F5" t="n">
-        <v>7.207035304591853e-05</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -496,12 +462,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E6" t="n">
-        <v>3.433920356105163</v>
-      </c>
-      <c r="F6" t="n">
-        <v>8.165364361349431e-05</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -518,12 +478,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E7" t="n">
-        <v>3.435737168099</v>
-      </c>
-      <c r="F7" t="n">
-        <v>7.708894480819242e-05</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -540,12 +494,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E8" t="n">
-        <v>3.436542735681173</v>
-      </c>
-      <c r="F8" t="n">
-        <v>8.779946831763992e-05</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -562,12 +510,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E9" t="n">
-        <v>3.440861949100481</v>
-      </c>
-      <c r="F9" t="n">
-        <v>7.846171708588319e-05</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -584,12 +526,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E10" t="n">
-        <v>3.444324175730245</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.0001085652582031373</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -606,12 +542,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E11" t="n">
-        <v>3.445018335029777</v>
-      </c>
-      <c r="F11" t="n">
-        <v>8.245536119676371e-05</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -628,12 +558,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E12" t="n">
-        <v>3.44940610739225</v>
-      </c>
-      <c r="F12" t="n">
-        <v>9.923782598740972e-05</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -650,12 +574,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E13" t="n">
-        <v>3.453639622132605</v>
-      </c>
-      <c r="F13" t="n">
-        <v>9.502532551466234e-05</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -672,12 +590,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E14" t="n">
-        <v>3.45806167396666</v>
-      </c>
-      <c r="F14" t="n">
-        <v>7.684244950481798e-05</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -694,12 +606,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E15" t="n">
-        <v>3.659299311887736</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.0001201543548475927</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -716,12 +622,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E16" t="n">
-        <v>3.676516176489705</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.0001067692742660575</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -738,12 +638,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E17" t="n">
-        <v>3.677433152354519</v>
-      </c>
-      <c r="F17" t="n">
-        <v>9.155409903455543e-05</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -760,12 +654,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E18" t="n">
-        <v>3.679207115008878</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.0001013073622960785</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -782,12 +670,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E19" t="n">
-        <v>3.680072671666319</v>
-      </c>
-      <c r="F19" t="n">
-        <v>8.455744936512585e-05</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -804,12 +686,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E20" t="n">
-        <v>3.680886809116387</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.000105283202110569</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -826,12 +702,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E21" t="n">
-        <v>3.681743795905933</v>
-      </c>
-      <c r="F21" t="n">
-        <v>9.52177198546456e-05</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -848,12 +718,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E22" t="n">
-        <v>3.682660771770746</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.0001034173385704508</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -870,12 +734,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E23" t="n">
-        <v>3.683397780409756</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.0001882088570395634</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -892,12 +750,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E24" t="n">
-        <v>3.684263337067197</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.0001965816917958952</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -914,12 +766,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E25" t="n">
-        <v>3.685943031174706</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.0003794569286781079</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -936,12 +782,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E26" t="n">
-        <v>3.687699854093274</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.0003408269510722321</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -958,12 +798,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E27" t="n">
-        <v>3.689525235955006</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0.000367647972830256</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -980,12 +814,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E28" t="n">
-        <v>3.691256349269888</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0.0003550032804761017</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1002,12 +830,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E29" t="n">
-        <v>3.693013172188456</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.0003664659288509281</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1024,12 +846,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E30" t="n">
-        <v>3.693578783469556</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0.0003708886814185478</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1046,12 +862,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E31" t="n">
-        <v>3.694615737484906</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0.0003058352886890334</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1068,12 +878,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E32" t="n">
-        <v>3.696278291856625</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0.0003045411789227117</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1090,12 +894,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E33" t="n">
-        <v>3.698009405171506</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0.0003387572479725098</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1112,12 +910,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E34" t="n">
-        <v>3.699783367825865</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0.0003302723275735678</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1134,12 +926,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E35" t="n">
-        <v>3.70147163180127</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0.0003639678227879325</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1156,12 +942,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E36" t="n">
-        <v>3.703177035512466</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.0003309302016845045</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1178,12 +958,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E37" t="n">
-        <v>3.704736751469439</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0.0003164759091873669</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1200,12 +974,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E38" t="n">
-        <v>3.706647832010125</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0.0002496146576996743</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1222,12 +990,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E39" t="n">
-        <v>3.708276106910262</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0.000245033832940427</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1244,12 +1006,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E40" t="n">
-        <v>3.709964370885666</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0.000197090184118567</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1266,12 +1022,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E41" t="n">
-        <v>3.710855637146794</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0.0002124435365627839</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1288,12 +1038,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E42" t="n">
-        <v>3.711772613011608</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0.0003183694769068522</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1310,12 +1054,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E43" t="n">
-        <v>3.713529435930176</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0.0003212363534048611</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1332,12 +1070,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E44" t="n">
-        <v>3.715166280698207</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0.0003117864731279345</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1354,12 +1086,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E45" t="n">
-        <v>3.719356946099085</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0.0002812897249755586</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1376,12 +1102,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E46" t="n">
-        <v>3.723504762160485</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0.0002888041406164193</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1398,12 +1118,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E47" t="n">
-        <v>3.727875394787168</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0.0002793590200155659</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1420,12 +1134,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E48" t="n">
-        <v>3.745075119653346</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0.000194072597133356</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1442,12 +1150,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E49" t="n">
-        <v>3.762300554123211</v>
-      </c>
-      <c r="F49" t="n">
-        <v>0.0002555010899220769</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1464,12 +1166,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E50" t="n">
-        <v>3.779337451499375</v>
-      </c>
-      <c r="F50" t="n">
-        <v>0.0003805244266248611</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1486,12 +1182,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E51" t="n">
-        <v>3.788087286620635</v>
-      </c>
-      <c r="F51" t="n">
-        <v>0.0005587776917435288</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1508,12 +1198,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E52" t="n">
-        <v>3.796605735308717</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0.0007700655418218724</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1530,12 +1214,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E53" t="n">
-        <v>3.805055625053636</v>
-      </c>
-      <c r="F53" t="n">
-        <v>0.001587918133699719</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1552,12 +1230,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E54" t="n">
-        <v>3.813539794270136</v>
-      </c>
-      <c r="F54" t="n">
-        <v>0.002742303918094362</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1574,12 +1246,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E55" t="n">
-        <v>3.817867577557342</v>
-      </c>
-      <c r="F55" t="n">
-        <v>0.007447663932935442</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1596,12 +1262,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E56" t="n">
-        <v>3.82226391978771</v>
-      </c>
-      <c r="F56" t="n">
-        <v>0.01204216733567591</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -1618,12 +1278,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E57" t="n">
-        <v>3.830696669796837</v>
-      </c>
-      <c r="F57" t="n">
-        <v>0.01336037161928329</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -1640,12 +1294,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E58" t="n">
-        <v>3.837569703848993</v>
-      </c>
-      <c r="F58" t="n">
-        <v>0.01076930641131473</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -1662,12 +1310,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E59" t="n">
-        <v>3.844554146183789</v>
-      </c>
-      <c r="F59" t="n">
-        <v>0.005548407335299294</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -1684,12 +1326,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E60" t="n">
-        <v>3.846319538970252</v>
-      </c>
-      <c r="F60" t="n">
-        <v>0.004278512678558955</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -1706,12 +1342,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E61" t="n">
-        <v>3.847930674134597</v>
-      </c>
-      <c r="F61" t="n">
-        <v>0.005421204231184439</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -1728,12 +1358,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E62" t="n">
-        <v>3.84977319573212</v>
-      </c>
-      <c r="F62" t="n">
-        <v>0.002398731271156932</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -1750,12 +1374,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E63" t="n">
-        <v>3.852147049139162</v>
-      </c>
-      <c r="F63" t="n">
-        <v>0.001720684644726185</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -1772,12 +1390,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E64" t="n">
-        <v>3.856414843351097</v>
-      </c>
-      <c r="F64" t="n">
-        <v>0.0009932611480053441</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -1794,12 +1406,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E65" t="n">
-        <v>3.865190388076044</v>
-      </c>
-      <c r="F65" t="n">
-        <v>0.0005318750025434704</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -1816,12 +1422,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E66" t="n">
-        <v>3.866878652051449</v>
-      </c>
-      <c r="F66" t="n">
-        <v>0.0004070454453229111</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -1838,12 +1438,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E67" t="n">
-        <v>3.869363913741131</v>
-      </c>
-      <c r="F67" t="n">
-        <v>0.000397932677226525</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -1860,12 +1454,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E68" t="n">
-        <v>3.873640277820963</v>
-      </c>
-      <c r="F68" t="n">
-        <v>0.0004832463289749285</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -1882,12 +1470,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E69" t="n">
-        <v>3.878070899522913</v>
-      </c>
-      <c r="F69" t="n">
-        <v>0.0006696065287930627</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -1904,12 +1486,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E70" t="n">
-        <v>3.881644534435317</v>
-      </c>
-      <c r="F70" t="n">
-        <v>0.0006239025709367391</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -1926,12 +1502,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E71" t="n">
-        <v>3.88648650979625</v>
-      </c>
-      <c r="F71" t="n">
-        <v>0.001249176154741283</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -1948,12 +1518,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E72" t="n">
-        <v>3.890925701366096</v>
-      </c>
-      <c r="F72" t="n">
-        <v>0.001893940938944161</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -1970,12 +1534,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E73" t="n">
-        <v>3.899118495074151</v>
-      </c>
-      <c r="F73" t="n">
-        <v>0.004759079781038328</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -1992,12 +1550,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E74" t="n">
-        <v>3.908014017949633</v>
-      </c>
-      <c r="F74" t="n">
-        <v>0.01210333671197988</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2014,12 +1566,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E75" t="n">
-        <v>3.916541036505611</v>
-      </c>
-      <c r="F75" t="n">
-        <v>0.01199326791716576</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2036,12 +1582,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E76" t="n">
-        <v>3.925025205722112</v>
-      </c>
-      <c r="F76" t="n">
-        <v>0.00649488550990609</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2058,12 +1598,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E77" t="n">
-        <v>3.933637922957044</v>
-      </c>
-      <c r="F77" t="n">
-        <v>0.003438892302487163</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2080,12 +1614,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E78" t="n">
-        <v>3.942370618342513</v>
-      </c>
-      <c r="F78" t="n">
-        <v>0.001708285988755101</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2102,12 +1630,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E79" t="n">
-        <v>3.950700529936895</v>
-      </c>
-      <c r="F79" t="n">
-        <v>0.00173520832058068</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2124,12 +1646,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E80" t="n">
-        <v>3.959476074661841</v>
-      </c>
-      <c r="F80" t="n">
-        <v>0.001152515929054183</v>
-      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2146,12 +1662,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E81" t="n">
-        <v>3.967797416388328</v>
-      </c>
-      <c r="F81" t="n">
-        <v>0.001103231158833114</v>
-      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2168,12 +1678,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E82" t="n">
-        <v>3.97227945729765</v>
-      </c>
-      <c r="F82" t="n">
-        <v>0.0006665025254806228</v>
-      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2190,12 +1694,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E83" t="n">
-        <v>3.976384424019573</v>
-      </c>
-      <c r="F83" t="n">
-        <v>0.0008092212748635805</v>
-      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2212,12 +1710,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E84" t="n">
-        <v>3.984954291915029</v>
-      </c>
-      <c r="F84" t="n">
-        <v>0.001738141210423208</v>
-      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2234,12 +1726,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E85" t="n">
-        <v>4.002231145592266</v>
-      </c>
-      <c r="F85" t="n">
-        <v>0.001165547357243525</v>
-      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2256,12 +1742,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E86" t="n">
-        <v>4.010826723091408</v>
-      </c>
-      <c r="F86" t="n">
-        <v>0.0005315440266260533</v>
-      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2278,12 +1758,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E87" t="n">
-        <v>4.019208053893163</v>
-      </c>
-      <c r="F87" t="n">
-        <v>0.0004528179708796148</v>
-      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2300,12 +1774,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E88" t="n">
-        <v>4.036424918495132</v>
-      </c>
-      <c r="F88" t="n">
-        <v>0.0004192715499912967</v>
-      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2322,12 +1790,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E89" t="n">
-        <v>4.053547514550251</v>
-      </c>
-      <c r="F89" t="n">
-        <v>0.0005317727979734225</v>
-      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2344,12 +1806,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E90" t="n">
-        <v>4.070687250341162</v>
-      </c>
-      <c r="F90" t="n">
-        <v>0.0009713367875781591</v>
-      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2366,12 +1822,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E91" t="n">
-        <v>4.075126441911007</v>
-      </c>
-      <c r="F91" t="n">
-        <v>0.002227065407970377</v>
-      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -2388,12 +1838,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E92" t="n">
-        <v>4.078297293032326</v>
-      </c>
-      <c r="F92" t="n">
-        <v>0.002510381599109668</v>
-      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -2410,12 +1854,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E93" t="n">
-        <v>4.087861265603653</v>
-      </c>
-      <c r="F93" t="n">
-        <v>0.002945197325218724</v>
-      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -2432,12 +1870,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E94" t="n">
-        <v>4.09212905981559</v>
-      </c>
-      <c r="F94" t="n">
-        <v>0.003049178821473336</v>
-      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -2454,12 +1886,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E95" t="n">
-        <v>4.096551111649645</v>
-      </c>
-      <c r="F95" t="n">
-        <v>0.002718295693181587</v>
-      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -2476,12 +1902,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E96" t="n">
-        <v>4.105069560337727</v>
-      </c>
-      <c r="F96" t="n">
-        <v>0.002366069596782138</v>
-      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -2498,12 +1918,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E97" t="n">
-        <v>4.113468030875272</v>
-      </c>
-      <c r="F97" t="n">
-        <v>0.001793160797384424</v>
-      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -2520,12 +1934,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E98" t="n">
-        <v>4.122132167317578</v>
-      </c>
-      <c r="F98" t="n">
-        <v>0.00166139834064013</v>
-      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -2542,12 +1950,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E99" t="n">
-        <v>4.12395754917931</v>
-      </c>
-      <c r="F99" t="n">
-        <v>0.001559987167849485</v>
-      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -2564,12 +1966,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E100" t="n">
-        <v>4.126622778094797</v>
-      </c>
-      <c r="F100" t="n">
-        <v>0.00153303016251472</v>
-      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -2586,12 +1982,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E101" t="n">
-        <v>4.13072774481672</v>
-      </c>
-      <c r="F101" t="n">
-        <v>0.001515455165276498</v>
-      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -2608,12 +1998,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E102" t="n">
-        <v>4.139151924957952</v>
-      </c>
-      <c r="F102" t="n">
-        <v>0.001520660309484841</v>
-      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -2630,12 +2014,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E103" t="n">
-        <v>4.156411638899399</v>
-      </c>
-      <c r="F103" t="n">
-        <v>0.001791690207407932</v>
-      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -2652,12 +2030,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E104" t="n">
-        <v>4.170346244097408</v>
-      </c>
-      <c r="F104" t="n">
-        <v>0.002390044210642019</v>
-      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -2674,12 +2046,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E105" t="n">
-        <v>4.190571132330683</v>
-      </c>
-      <c r="F105" t="n">
-        <v>0.003910720913537869</v>
-      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -2696,12 +2062,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E106" t="n">
-        <v>4.199158139961929</v>
-      </c>
-      <c r="F106" t="n">
-        <v>0.005982000321012501</v>
-      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -2718,12 +2078,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E107" t="n">
-        <v>4.207916544951084</v>
-      </c>
-      <c r="F107" t="n">
-        <v>0.007917784675238911</v>
-      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -2740,12 +2094,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E108" t="n">
-        <v>4.216340725092316</v>
-      </c>
-      <c r="F108" t="n">
-        <v>0.01053686304886661</v>
-      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -2762,12 +2110,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E109" t="n">
-        <v>4.221645473319603</v>
-      </c>
-      <c r="F109" t="n">
-        <v>0.01312394285024387</v>
-      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -2784,12 +2126,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E110" t="n">
-        <v>4.225107699949367</v>
-      </c>
-      <c r="F110" t="n">
-        <v>0.01419158366602055</v>
-      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -2806,12 +2142,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E111" t="n">
-        <v>4.230875221043007</v>
-      </c>
-      <c r="F111" t="n">
-        <v>0.01770251225619758</v>
-      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -2828,12 +2158,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E112" t="n">
-        <v>4.23929940118424</v>
-      </c>
-      <c r="F112" t="n">
-        <v>0.02171504322580034</v>
-      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -2850,12 +2174,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E113" t="n">
-        <v>4.24231599468344</v>
-      </c>
-      <c r="F113" t="n">
-        <v>0.02196126986645404</v>
-      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -2872,12 +2190,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E114" t="n">
-        <v>4.24787783894759</v>
-      </c>
-      <c r="F114" t="n">
-        <v>0.02463352873431351</v>
-      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -2894,12 +2206,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E115" t="n">
-        <v>4.252257041442167</v>
-      </c>
-      <c r="F115" t="n">
-        <v>0.02515885371503485</v>
-      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -2916,12 +2222,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E116" t="n">
-        <v>4.25472516339606</v>
-      </c>
-      <c r="F116" t="n">
-        <v>0.02500044238693442</v>
-      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -2938,12 +2238,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E117" t="n">
-        <v>4.25739896217944</v>
-      </c>
-      <c r="F117" t="n">
-        <v>0.02458655925439199</v>
-      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -2960,12 +2254,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E118" t="n">
-        <v>4.259258623512755</v>
-      </c>
-      <c r="F118" t="n">
-        <v>0.02458202856145001</v>
-      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -2982,12 +2270,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E119" t="n">
-        <v>4.2616239070519</v>
-      </c>
-      <c r="F119" t="n">
-        <v>0.0233521290241238</v>
-      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -3004,12 +2286,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E120" t="n">
-        <v>4.263192192876769</v>
-      </c>
-      <c r="F120" t="n">
-        <v>0.02279078023761039</v>
-      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -3026,12 +2302,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E121" t="n">
-        <v>4.271830619715387</v>
-      </c>
-      <c r="F121" t="n">
-        <v>0.01873548822528431</v>
-      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -3048,12 +2318,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E122" t="n">
-        <v>4.27642406890735</v>
-      </c>
-      <c r="F122" t="n">
-        <v>0.01740379581136126</v>
-      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -3070,12 +2334,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E123" t="n">
-        <v>4.28036620813926</v>
-      </c>
-      <c r="F123" t="n">
-        <v>0.01465431828368129</v>
-      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -3092,12 +2350,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E124" t="n">
-        <v>4.28891036643103</v>
-      </c>
-      <c r="F124" t="n">
-        <v>0.01138183767303974</v>
-      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -3114,12 +2366,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E125" t="n">
-        <v>4.293495245755098</v>
-      </c>
-      <c r="F125" t="n">
-        <v>0.01039181684647338</v>
-      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -3136,12 +2382,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E126" t="n">
-        <v>4.297651631684394</v>
-      </c>
-      <c r="F126" t="n">
-        <v>0.008958789382230685</v>
-      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -3158,12 +2398,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E127" t="n">
-        <v>4.300136893374075</v>
-      </c>
-      <c r="F127" t="n">
-        <v>0.008529125761831256</v>
-      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -3180,12 +2414,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E128" t="n">
-        <v>4.300239731788821</v>
-      </c>
-      <c r="F128" t="n">
-        <v>0.008566972435572797</v>
-      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -3202,12 +2430,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E129" t="n">
-        <v>4.30191942589633</v>
-      </c>
-      <c r="F129" t="n">
-        <v>0.00847558534834251</v>
-      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -3224,12 +2446,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E130" t="n">
-        <v>4.306187220108267</v>
-      </c>
-      <c r="F130" t="n">
-        <v>0.008227157939632999</v>
-      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -3246,12 +2462,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E131" t="n">
-        <v>4.308783890080591</v>
-      </c>
-      <c r="F131" t="n">
-        <v>0.008282159021159433</v>
-      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -3268,12 +2478,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E132" t="n">
-        <v>4.310729250092858</v>
-      </c>
-      <c r="F132" t="n">
-        <v>0.008392153858361033</v>
-      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -3290,12 +2494,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E133" t="n">
-        <v>4.31302597468884</v>
-      </c>
-      <c r="F133" t="n">
-        <v>0.009323082227477398</v>
-      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -3312,12 +2510,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E134" t="n">
-        <v>4.315699773472222</v>
-      </c>
-      <c r="F134" t="n">
-        <v>0.01019256361101952</v>
-      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -3334,12 +2526,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E135" t="n">
-        <v>4.318107906350845</v>
-      </c>
-      <c r="F135" t="n">
-        <v>0.01068827426623893</v>
-      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -3356,12 +2542,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E136" t="n">
-        <v>4.320910253152659</v>
-      </c>
-      <c r="F136" t="n">
-        <v>0.01084733066380565</v>
-      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -3378,12 +2558,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E137" t="n">
-        <v>4.323318386031281</v>
-      </c>
-      <c r="F137" t="n">
-        <v>0.01059276760250125</v>
-      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -3400,12 +2574,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E138" t="n">
-        <v>4.327757577601127</v>
-      </c>
-      <c r="F138" t="n">
-        <v>0.01005086227455396</v>
-      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -3422,12 +2590,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E139" t="n">
-        <v>4.331931103266214</v>
-      </c>
-      <c r="F139" t="n">
-        <v>0.008670632493768133</v>
-      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -3444,12 +2606,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E140" t="n">
-        <v>4.340535250633251</v>
-      </c>
-      <c r="F140" t="n">
-        <v>0.005413111066881513</v>
-      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -3466,12 +2622,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E141" t="n">
-        <v>4.344845894184665</v>
-      </c>
-      <c r="F141" t="n">
-        <v>0.004542435013471957</v>
-      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -3488,12 +2638,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E142" t="n">
-        <v>4.348762323812888</v>
-      </c>
-      <c r="F142" t="n">
-        <v>0.003663309281463038</v>
-      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -3510,12 +2654,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E143" t="n">
-        <v>4.357083665539375</v>
-      </c>
-      <c r="F143" t="n">
-        <v>0.002826518959901516</v>
-      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -3532,12 +2670,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E144" t="n">
-        <v>4.362054188918739</v>
-      </c>
-      <c r="F144" t="n">
-        <v>0.002671616505545902</v>
-      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -3554,12 +2686,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E145" t="n">
-        <v>4.365250749643743</v>
-      </c>
-      <c r="F145" t="n">
-        <v>0.002578686207869555</v>
-      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -3576,12 +2702,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E146" t="n">
-        <v>4.367855989483961</v>
-      </c>
-      <c r="F146" t="n">
-        <v>0.002685455272876407</v>
-      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -3598,12 +2718,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E147" t="n">
-        <v>4.369681371345694</v>
-      </c>
-      <c r="F147" t="n">
-        <v>0.002546685145449765</v>
-      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -3620,12 +2734,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E148" t="n">
-        <v>4.370624056814194</v>
-      </c>
-      <c r="F148" t="n">
-        <v>0.002541033888203071</v>
-      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -3642,12 +2750,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E149" t="n">
-        <v>4.371001131001594</v>
-      </c>
-      <c r="F149" t="n">
-        <v>0.002543219297378939</v>
-      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -3664,12 +2766,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E150" t="n">
-        <v>4.371241087302666</v>
-      </c>
-      <c r="F150" t="n">
-        <v>0.002502555026460214</v>
-      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -3686,12 +2782,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E151" t="n">
-        <v>4.37310074863598</v>
-      </c>
-      <c r="F151" t="n">
-        <v>0.002506838829053667</v>
-      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -3708,12 +2798,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E152" t="n">
-        <v>4.37479758247928</v>
-      </c>
-      <c r="F152" t="n">
-        <v>0.002422304860484723</v>
-      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -3730,12 +2814,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E153" t="n">
-        <v>4.376545835529954</v>
-      </c>
-      <c r="F153" t="n">
-        <v>0.002408493402906308</v>
-      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -3752,12 +2830,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E154" t="n">
-        <v>4.378156970694299</v>
-      </c>
-      <c r="F154" t="n">
-        <v>0.002231763230024475</v>
-      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -3774,12 +2846,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E155" t="n">
-        <v>4.379236774049127</v>
-      </c>
-      <c r="F155" t="n">
-        <v>0.002247240282045541</v>
-      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -3796,12 +2862,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E156" t="n">
-        <v>4.379845234669704</v>
-      </c>
-      <c r="F156" t="n">
-        <v>0.002274303286269798</v>
-      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -3818,12 +2878,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E157" t="n">
-        <v>4.382493323849399</v>
-      </c>
-      <c r="F157" t="n">
-        <v>0.002259640671839816</v>
-      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -3840,12 +2894,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E158" t="n">
-        <v>4.386743978325545</v>
-      </c>
-      <c r="F158" t="n">
-        <v>0.001994252349826539</v>
-      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -3862,12 +2910,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E159" t="n">
-        <v>4.391003202669586</v>
-      </c>
-      <c r="F159" t="n">
-        <v>0.001748408901966254</v>
-      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -3884,12 +2926,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E160" t="n">
-        <v>4.395073889919927</v>
-      </c>
-      <c r="F160" t="n">
-        <v>0.001624323818029944</v>
-      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -3906,12 +2942,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E161" t="n">
-        <v>4.396290811161082</v>
-      </c>
-      <c r="F161" t="n">
-        <v>0.001588555302355699</v>
-      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -3928,12 +2958,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E162" t="n">
-        <v>4.399607350036622</v>
-      </c>
-      <c r="F162" t="n">
-        <v>0.001994636125800829</v>
-      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -3950,12 +2974,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E163" t="n">
-        <v>4.403952273059619</v>
-      </c>
-      <c r="F163" t="n">
-        <v>0.003472011792322736</v>
-      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -3972,12 +2990,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E164" t="n">
-        <v>4.406326126466659</v>
-      </c>
-      <c r="F164" t="n">
-        <v>0.004208052579934978</v>
-      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -3994,12 +3006,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E165" t="n">
-        <v>4.408974215646356</v>
-      </c>
-      <c r="F165" t="n">
-        <v>0.004479891072399068</v>
-      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -4016,12 +3022,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E166" t="n">
-        <v>4.411759422712378</v>
-      </c>
-      <c r="F166" t="n">
-        <v>0.004553401872913912</v>
-      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -4038,12 +3038,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E167" t="n">
-        <v>4.41349053602726</v>
-      </c>
-      <c r="F167" t="n">
-        <v>0.004669988074459768</v>
-      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -4060,12 +3054,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E168" t="n">
-        <v>4.414321813213119</v>
-      </c>
-      <c r="F168" t="n">
-        <v>0.004741510573049734</v>
-      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -4082,12 +3070,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E169" t="n">
-        <v>4.419515153157765</v>
-      </c>
-      <c r="F169" t="n">
-        <v>0.004558754816660753</v>
-      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -4104,12 +3086,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E170" t="n">
-        <v>4.421511932377406</v>
-      </c>
-      <c r="F170" t="n">
-        <v>0.004200870025133713</v>
-      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -4126,12 +3102,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E171" t="n">
-        <v>4.430664551289752</v>
-      </c>
-      <c r="F171" t="n">
-        <v>0.002637176627311947</v>
-      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -4148,12 +3118,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E172" t="n">
-        <v>4.447624319854858</v>
-      </c>
-      <c r="F172" t="n">
-        <v>0.001718998822072707</v>
-      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -4170,12 +3134,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E173" t="n">
-        <v>4.464926883135782</v>
-      </c>
-      <c r="F173" t="n">
-        <v>0.001577684032826449</v>
-      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -4192,12 +3150,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E174" t="n">
-        <v>4.482066618926692</v>
-      </c>
-      <c r="F174" t="n">
-        <v>0.001824572920525541</v>
-      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -4214,12 +3166,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E175" t="n">
-        <v>4.490182283823687</v>
-      </c>
-      <c r="F175" t="n">
-        <v>0.002555534019728641</v>
-      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -4236,12 +3182,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E176" t="n">
-        <v>4.493233156794469</v>
-      </c>
-      <c r="F176" t="n">
-        <v>0.002827532230629263</v>
-      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -4258,12 +3198,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E177" t="n">
-        <v>4.499292053396556</v>
-      </c>
-      <c r="F177" t="n">
-        <v>0.004295466416294982</v>
-      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -4280,12 +3214,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E178" t="n">
-        <v>4.507699093801998</v>
-      </c>
-      <c r="F178" t="n">
-        <v>0.005788356242966136</v>
-      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -4302,12 +3230,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E179" t="n">
-        <v>4.512069726428679</v>
-      </c>
-      <c r="F179" t="n">
-        <v>0.00604343557355911</v>
-      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -4324,12 +3246,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E180" t="n">
-        <v>4.516303241169035</v>
-      </c>
-      <c r="F180" t="n">
-        <v>0.005757471640857811</v>
-      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -4346,12 +3262,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E181" t="n">
-        <v>4.520571035380971</v>
-      </c>
-      <c r="F181" t="n">
-        <v>0.00514481147108176</v>
-      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -4368,12 +3278,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E182" t="n">
-        <v>4.520622454588343</v>
-      </c>
-      <c r="F182" t="n">
-        <v>0.005178640025432485</v>
-      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -4390,12 +3294,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E183" t="n">
-        <v>4.524727421310266</v>
-      </c>
-      <c r="F183" t="n">
-        <v>0.004590587219246101</v>
-      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -4412,12 +3310,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E184" t="n">
-        <v>4.529132333408531</v>
-      </c>
-      <c r="F184" t="n">
-        <v>0.003890814512660001</v>
-      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -4434,12 +3326,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E185" t="n">
-        <v>4.533597234582063</v>
-      </c>
-      <c r="F185" t="n">
-        <v>0.003564821090230182</v>
-      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -4456,12 +3342,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E186" t="n">
-        <v>4.535979657856999</v>
-      </c>
-      <c r="F186" t="n">
-        <v>0.00361836214227122</v>
-      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -4478,12 +3358,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E187" t="n">
-        <v>4.540033205371549</v>
-      </c>
-      <c r="F187" t="n">
-        <v>0.003533767615550085</v>
-      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -4500,12 +3374,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E188" t="n">
-        <v>4.541790028290118</v>
-      </c>
-      <c r="F188" t="n">
-        <v>0.003505908955132054</v>
-      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -4522,12 +3390,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E189" t="n">
-        <v>4.54406961315031</v>
-      </c>
-      <c r="F189" t="n">
-        <v>0.003300374404613294</v>
-      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -4544,12 +3406,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E190" t="n">
-        <v>4.54908298586915</v>
-      </c>
-      <c r="F190" t="n">
-        <v>0.003701281112022689</v>
-      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -4566,12 +3422,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E191" t="n">
-        <v>4.553067974440538</v>
-      </c>
-      <c r="F191" t="n">
-        <v>0.004289219128474648</v>
-      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -4588,12 +3438,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E192" t="n">
-        <v>4.557044393144028</v>
-      </c>
-      <c r="F192" t="n">
-        <v>0.004867398388227901</v>
-      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -4610,12 +3454,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E193" t="n">
-        <v>4.561577853260723</v>
-      </c>
-      <c r="F193" t="n">
-        <v>0.005493722740334901</v>
-      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -4632,12 +3470,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E194" t="n">
-        <v>4.56575137892581</v>
-      </c>
-      <c r="F194" t="n">
-        <v>0.006389248051757859</v>
-      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -4654,12 +3486,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E195" t="n">
-        <v>4.570207710231447</v>
-      </c>
-      <c r="F195" t="n">
-        <v>0.007228852298836397</v>
-      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -4676,12 +3502,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E196" t="n">
-        <v>4.570233419835134</v>
-      </c>
-      <c r="F196" t="n">
-        <v>0.006913581883080291</v>
-      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -4698,12 +3518,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E197" t="n">
-        <v>4.574141279595461</v>
-      </c>
-      <c r="F197" t="n">
-        <v>0.00689047042736839</v>
-      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -4720,12 +3534,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E198" t="n">
-        <v>4.578657599976365</v>
-      </c>
-      <c r="F198" t="n">
-        <v>0.006288257088395448</v>
-      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -4742,12 +3550,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E199" t="n">
-        <v>4.578820427466379</v>
-      </c>
-      <c r="F199" t="n">
-        <v>0.006170047362708217</v>
-      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -4764,12 +3566,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E200" t="n">
-        <v>4.582256944492457</v>
-      </c>
-      <c r="F200" t="n">
-        <v>0.005484667680102053</v>
-      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -4786,12 +3582,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E201" t="n">
-        <v>4.583388167054657</v>
-      </c>
-      <c r="F201" t="n">
-        <v>0.005260477783386923</v>
-      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -4808,12 +3598,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E202" t="n">
-        <v>4.583662402827311</v>
-      </c>
-      <c r="F202" t="n">
-        <v>0.005125294617752422</v>
-      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -4830,12 +3614,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E203" t="n">
-        <v>4.586636146987034</v>
-      </c>
-      <c r="F203" t="n">
-        <v>0.006544913747631335</v>
-      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -4852,12 +3630,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E204" t="n">
-        <v>4.58796447651083</v>
-      </c>
-      <c r="F204" t="n">
-        <v>0.005706229081883014</v>
-      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -4874,12 +3646,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E205" t="n">
-        <v>4.591649519705875</v>
-      </c>
-      <c r="F205" t="n">
-        <v>0.006035283640905923</v>
-      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -4896,12 +3662,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E206" t="n">
-        <v>4.591709508781143</v>
-      </c>
-      <c r="F206" t="n">
-        <v>0.006565389229871577</v>
-      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -4918,12 +3678,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E207" t="n">
-        <v>4.593303504209699</v>
-      </c>
-      <c r="F207" t="n">
-        <v>0.005490966412079285</v>
-      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -4940,12 +3694,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E208" t="n">
-        <v>4.595068896996162</v>
-      </c>
-      <c r="F208" t="n">
-        <v>0.005168575921903385</v>
-      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -4962,12 +3710,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E209" t="n">
-        <v>4.596757160971567</v>
-      </c>
-      <c r="F209" t="n">
-        <v>0.00490669583841991</v>
-      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -4984,12 +3726,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E210" t="n">
-        <v>4.598633962040672</v>
-      </c>
-      <c r="F210" t="n">
-        <v>0.004607914031836065</v>
-      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -5006,12 +3742,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E211" t="n">
-        <v>4.600339365751868</v>
-      </c>
-      <c r="F211" t="n">
-        <v>0.004275587379678715</v>
-      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -5028,12 +3758,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E212" t="n">
-        <v>4.600536472713462</v>
-      </c>
-      <c r="F212" t="n">
-        <v>0.004593449266250404</v>
-      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -5050,12 +3774,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E213" t="n">
-        <v>4.601719114483036</v>
-      </c>
-      <c r="F213" t="n">
-        <v>0.004343336334251765</v>
-      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -5072,12 +3790,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E214" t="n">
-        <v>4.603295970175799</v>
-      </c>
-      <c r="F214" t="n">
-        <v>0.005171257019306179</v>
-      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -5094,12 +3806,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E215" t="n">
-        <v>4.604949954679621</v>
-      </c>
-      <c r="F215" t="n">
-        <v>0.003587806556713504</v>
-      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -5116,12 +3822,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E216" t="n">
-        <v>4.606132596449195</v>
-      </c>
-      <c r="F216" t="n">
-        <v>0.002235111212482969</v>
-      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -5138,12 +3838,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E217" t="n">
-        <v>4.610666056565891</v>
-      </c>
-      <c r="F217" t="n">
-        <v>0.0009182225992723854</v>
-      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -5160,12 +3854,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E218" t="n">
-        <v>4.613091329180303</v>
-      </c>
-      <c r="F218" t="n">
-        <v>0.0005694893594816976</v>
-      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -5182,12 +3870,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E219" t="n">
-        <v>4.613451263631914</v>
-      </c>
-      <c r="F219" t="n">
-        <v>0.0008065838186419792</v>
-      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -5204,12 +3886,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E220" t="n">
-        <v>4.613896896762476</v>
-      </c>
-      <c r="F220" t="n">
-        <v>0.0005040582750033011</v>
-      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -5226,12 +3902,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E221" t="n">
-        <v>4.615696569020522</v>
-      </c>
-      <c r="F221" t="n">
-        <v>0.0004089019025163319</v>
-      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -5248,12 +3918,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E222" t="n">
-        <v>4.619038817499749</v>
-      </c>
-      <c r="F222" t="n">
-        <v>0.000348496837816131</v>
-      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -5270,12 +3934,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E223" t="n">
-        <v>4.621798314962087</v>
-      </c>
-      <c r="F223" t="n">
-        <v>0.0003521446723737503</v>
-      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -5292,12 +3950,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E224" t="n">
-        <v>4.630650988498092</v>
-      </c>
-      <c r="F224" t="n">
-        <v>0.0005115075643133328</v>
-      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -5314,12 +3966,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E225" t="n">
-        <v>4.639795037542543</v>
-      </c>
-      <c r="F225" t="n">
-        <v>0.0009517998453147267</v>
-      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -5336,12 +3982,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E226" t="n">
-        <v>4.64860486173907</v>
-      </c>
-      <c r="F226" t="n">
-        <v>0.001065260528910033</v>
-      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -5358,12 +3998,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E227" t="n">
-        <v>4.658074565763548</v>
-      </c>
-      <c r="F227" t="n">
-        <v>0.000938995485324857</v>
-      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -5380,12 +4014,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E228" t="n">
-        <v>4.661373964903298</v>
-      </c>
-      <c r="F228" t="n">
-        <v>0.0008352824546536999</v>
-      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -5401,12 +4029,6 @@
         <is>
           <t>4</t>
         </is>
-      </c>
-      <c r="E229" t="n">
-        <v>4.662710864294989</v>
-      </c>
-      <c r="F229" t="n">
-        <v>0.0008606171881907121</v>
       </c>
     </row>
   </sheetData>

--- a/TESTING/legendre_out/DATA/p1/p1FitPoints.xlsx
+++ b/TESTING/legendre_out/DATA/p1/p1FitPoints.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D229"/>
+  <dimension ref="A1:D223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -388,10 +388,10 @@
         <v>3.424536350759639</v>
       </c>
       <c r="B2" t="n">
-        <v>2.16938082317685e-06</v>
+        <v>1.003911302182094e-06</v>
       </c>
       <c r="C2" t="n">
-        <v>9.173380045946547e-08</v>
+        <v>4.783558708851387e-08</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -404,10 +404,10 @@
         <v>3.42877843536789</v>
       </c>
       <c r="B3" t="n">
-        <v>3.927429774321854e-06</v>
+        <v>2.800369958600767e-06</v>
       </c>
       <c r="C3" t="n">
-        <v>1.606189891470658e-07</v>
+        <v>1.137537186122309e-07</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -420,10 +420,10 @@
         <v>3.430466699343294</v>
       </c>
       <c r="B4" t="n">
-        <v>4.364524003230396e-06</v>
+        <v>4.222833341054923e-06</v>
       </c>
       <c r="C4" t="n">
-        <v>1.826471518498921e-07</v>
+        <v>1.556927616845236e-07</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -433,13 +433,13 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3.432206382526072</v>
+        <v>3.433920356105163</v>
       </c>
       <c r="B5" t="n">
-        <v>5.735176468817984e-06</v>
+        <v>4.443427064624834e-06</v>
       </c>
       <c r="C5" t="n">
-        <v>2.272490909798648e-07</v>
+        <v>1.656672130136983e-07</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -449,13 +449,13 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>3.433920356105163</v>
+        <v>3.435737168099</v>
       </c>
       <c r="B6" t="n">
-        <v>6.497790501275796e-06</v>
+        <v>4.632868725076932e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>2.417596494967309e-07</v>
+        <v>1.846404722100773e-07</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -465,13 +465,13 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>3.435737168099</v>
+        <v>3.436542735681173</v>
       </c>
       <c r="B7" t="n">
-        <v>6.134543311981063e-06</v>
+        <v>4.906521708325058e-06</v>
       </c>
       <c r="C7" t="n">
-        <v>2.636682517882229e-07</v>
+        <v>1.962682584083572e-07</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -481,13 +481,13 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>3.436542735681173</v>
+        <v>3.440861949100481</v>
       </c>
       <c r="B8" t="n">
-        <v>6.986859691796325e-06</v>
+        <v>4.488212246439369e-06</v>
       </c>
       <c r="C8" t="n">
-        <v>2.795243457979075e-07</v>
+        <v>1.689196002998154e-07</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -497,13 +497,13 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>3.440861949100481</v>
+        <v>3.444324175730245</v>
       </c>
       <c r="B9" t="n">
-        <v>6.243785058848066e-06</v>
+        <v>4.968249852521265e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>2.291754969719797e-07</v>
+        <v>1.667214974611379e-07</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -513,13 +513,13 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>3.444324175730245</v>
+        <v>3.445018335029777</v>
       </c>
       <c r="B10" t="n">
-        <v>8.639348745538617e-06</v>
+        <v>3.696697635889545e-06</v>
       </c>
       <c r="C10" t="n">
-        <v>2.85234783186591e-07</v>
+        <v>1.560259249041811e-07</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -529,13 +529,13 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>3.445018335029777</v>
+        <v>3.44940610739225</v>
       </c>
       <c r="B11" t="n">
-        <v>6.561589159446302e-06</v>
+        <v>4.699351316718316e-06</v>
       </c>
       <c r="C11" t="n">
-        <v>2.641076255818901e-07</v>
+        <v>1.836336479358745e-07</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -545,13 +545,13 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>3.44940610739225</v>
+        <v>3.453639622132605</v>
       </c>
       <c r="B12" t="n">
-        <v>7.897095273794803e-06</v>
+        <v>3.688536907179176e-06</v>
       </c>
       <c r="C12" t="n">
-        <v>2.974520783318557e-07</v>
+        <v>1.512340765088285e-07</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -561,13 +561,13 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>3.453639622132605</v>
+        <v>3.45806167396666</v>
       </c>
       <c r="B13" t="n">
-        <v>7.561875137287457e-06</v>
+        <v>3.324080995577811e-06</v>
       </c>
       <c r="C13" t="n">
-        <v>2.761063865256664e-07</v>
+        <v>1.315087023854919e-07</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -577,13 +577,13 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>3.45806167396666</v>
+        <v>3.659299311887736</v>
       </c>
       <c r="B14" t="n">
-        <v>6.114927838990574e-06</v>
+        <v>6.648397401359277e-06</v>
       </c>
       <c r="C14" t="n">
-        <v>2.16443325525574e-07</v>
+        <v>1.978209316824941e-07</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -593,13 +593,13 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>3.659299311887736</v>
+        <v>3.676516176489705</v>
       </c>
       <c r="B15" t="n">
-        <v>9.561579754006008e-06</v>
+        <v>5.30203474492719e-06</v>
       </c>
       <c r="C15" t="n">
-        <v>2.766444637966776e-07</v>
+        <v>1.728871096755255e-07</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -609,13 +609,13 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>3.676516176489705</v>
+        <v>3.677433152354519</v>
       </c>
       <c r="B16" t="n">
-        <v>8.496428884888671e-06</v>
+        <v>5.429984847962041e-06</v>
       </c>
       <c r="C16" t="n">
-        <v>2.6511643595745e-07</v>
+        <v>1.955165881123172e-07</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -625,13 +625,13 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>3.677433152354519</v>
+        <v>3.679207115008878</v>
       </c>
       <c r="B17" t="n">
-        <v>7.28564371083721e-06</v>
+        <v>4.722723868724922e-06</v>
       </c>
       <c r="C17" t="n">
-        <v>2.611973498091948e-07</v>
+        <v>1.743312291403101e-07</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -641,13 +641,13 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>3.679207115008878</v>
+        <v>3.680072671666319</v>
       </c>
       <c r="B18" t="n">
-        <v>8.061783740511197e-06</v>
+        <v>4.845532868701418e-06</v>
       </c>
       <c r="C18" t="n">
-        <v>2.771054273787746e-07</v>
+        <v>1.880707939859976e-07</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -657,13 +657,13 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>3.680072671666319</v>
+        <v>3.680886809116387</v>
       </c>
       <c r="B19" t="n">
-        <v>6.728868020851214e-06</v>
+        <v>6.241724600402411e-06</v>
       </c>
       <c r="C19" t="n">
-        <v>2.628869952814345e-07</v>
+        <v>2.322857561045487e-07</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -673,13 +673,13 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>3.680886809116387</v>
+        <v>3.681743795905933</v>
       </c>
       <c r="B20" t="n">
-        <v>8.378171020220063e-06</v>
+        <v>5.136102612011141e-06</v>
       </c>
       <c r="C20" t="n">
-        <v>3.11950547846472e-07</v>
+        <v>2.110379790602829e-07</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -689,13 +689,13 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>3.681743795905933</v>
+        <v>3.682660771770746</v>
       </c>
       <c r="B21" t="n">
-        <v>7.577185392403076e-06</v>
+        <v>5.984743736077724e-06</v>
       </c>
       <c r="C21" t="n">
-        <v>3.117045852895377e-07</v>
+        <v>2.54744196405606e-07</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -705,13 +705,13 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>3.682660771770746</v>
+        <v>3.683397780409756</v>
       </c>
       <c r="B22" t="n">
-        <v>8.229690317447685e-06</v>
+        <v>1.139468928643491e-05</v>
       </c>
       <c r="C22" t="n">
-        <v>3.568402518651592e-07</v>
+        <v>5.723393064942188e-07</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -721,13 +721,13 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>3.683397780409756</v>
+        <v>3.684263337067197</v>
       </c>
       <c r="B23" t="n">
-        <v>1.497718496576119e-05</v>
+        <v>1.277872835955177e-05</v>
       </c>
       <c r="C23" t="n">
-        <v>7.617235510801342e-07</v>
+        <v>7.341346705108242e-07</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -737,13 +737,13 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>3.684263337067197</v>
+        <v>3.685943031174706</v>
       </c>
       <c r="B24" t="n">
-        <v>1.56434739853421e-05</v>
+        <v>1.700400580479619e-05</v>
       </c>
       <c r="C24" t="n">
-        <v>8.934858697598652e-07</v>
+        <v>9.52160807701463e-07</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -753,13 +753,13 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>3.685943031174706</v>
+        <v>3.687699854093274</v>
       </c>
       <c r="B25" t="n">
-        <v>3.019622294479482e-05</v>
+        <v>1.866350771365947e-05</v>
       </c>
       <c r="C25" t="n">
-        <v>1.541308521435295e-06</v>
+        <v>9.569736654634123e-07</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -769,13 +769,13 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>3.687699854093274</v>
+        <v>3.689525235955006</v>
       </c>
       <c r="B26" t="n">
-        <v>2.712214700104265e-05</v>
+        <v>1.642078524591032e-05</v>
       </c>
       <c r="C26" t="n">
-        <v>1.373060969526393e-06</v>
+        <v>9.060954741254594e-07</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -785,13 +785,13 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>3.689525235955006</v>
+        <v>3.691256349269888</v>
       </c>
       <c r="B27" t="n">
-        <v>2.925649609682504e-05</v>
+        <v>2.0031748659319e-05</v>
       </c>
       <c r="C27" t="n">
-        <v>1.461004449868354e-06</v>
+        <v>1.051369587771867e-06</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -801,13 +801,13 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>3.691256349269888</v>
+        <v>3.693013172188456</v>
       </c>
       <c r="B28" t="n">
-        <v>2.825026345080506e-05</v>
+        <v>1.833188143386869e-05</v>
       </c>
       <c r="C28" t="n">
-        <v>1.469846043539078e-06</v>
+        <v>9.93613016676873e-07</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -817,13 +817,13 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>3.693013172188456</v>
+        <v>3.693578783469556</v>
       </c>
       <c r="B29" t="n">
-        <v>2.916243202569402e-05</v>
+        <v>1.910598828106061e-05</v>
       </c>
       <c r="C29" t="n">
-        <v>1.496259602841002e-06</v>
+        <v>9.872991075918741e-07</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -833,13 +833,13 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>3.693578783469556</v>
+        <v>3.694615737484906</v>
       </c>
       <c r="B30" t="n">
-        <v>2.951438349229854e-05</v>
+        <v>1.877170094342035e-05</v>
       </c>
       <c r="C30" t="n">
-        <v>1.45402256644446e-06</v>
+        <v>9.65749125185574e-07</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -849,13 +849,13 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>3.694615737484906</v>
+        <v>3.696278291856625</v>
       </c>
       <c r="B31" t="n">
-        <v>2.433759898339824e-05</v>
+        <v>1.877403849037332e-05</v>
       </c>
       <c r="C31" t="n">
-        <v>1.327727631923651e-06</v>
+        <v>9.932409807982571e-07</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -865,13 +865,13 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>3.696278291856625</v>
+        <v>3.698009405171506</v>
       </c>
       <c r="B32" t="n">
-        <v>2.423461700029145e-05</v>
+        <v>1.779976037110028e-05</v>
       </c>
       <c r="C32" t="n">
-        <v>1.334331038029349e-06</v>
+        <v>9.634992627202364e-07</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -881,13 +881,13 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>3.698009405171506</v>
+        <v>3.699783367825865</v>
       </c>
       <c r="B33" t="n">
-        <v>2.695744526151594e-05</v>
+        <v>1.652233499204064e-05</v>
       </c>
       <c r="C33" t="n">
-        <v>1.390088204898426e-06</v>
+        <v>8.663708472265994e-07</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -897,13 +897,13 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>3.699783367825865</v>
+        <v>3.70147163180127</v>
       </c>
       <c r="B34" t="n">
-        <v>2.62822367498995e-05</v>
+        <v>1.975503332049129e-05</v>
       </c>
       <c r="C34" t="n">
-        <v>1.31710337129907e-06</v>
+        <v>1.031598728091938e-06</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -913,13 +913,13 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>3.70147163180127</v>
+        <v>3.703177035512466</v>
       </c>
       <c r="B35" t="n">
-        <v>2.896363906154722e-05</v>
+        <v>1.73290483579689e-05</v>
       </c>
       <c r="C35" t="n">
-        <v>1.468495090005177e-06</v>
+        <v>8.745764335103602e-07</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -929,13 +929,13 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>3.703177035512466</v>
+        <v>3.704736751469439</v>
       </c>
       <c r="B36" t="n">
-        <v>2.633458870824338e-05</v>
+        <v>1.683193934146222e-05</v>
       </c>
       <c r="C36" t="n">
-        <v>1.288158333948358e-06</v>
+        <v>8.311042579453239e-07</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -945,13 +945,13 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>3.704736751469439</v>
+        <v>3.706647832010125</v>
       </c>
       <c r="B37" t="n">
-        <v>2.518435265833561e-05</v>
+        <v>1.098583513297806e-05</v>
       </c>
       <c r="C37" t="n">
-        <v>1.190724994785745e-06</v>
+        <v>5.927335748631179e-07</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -961,13 +961,13 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>3.706647832010125</v>
+        <v>3.708276106910262</v>
       </c>
       <c r="B38" t="n">
-        <v>1.98637033205473e-05</v>
+        <v>1.123611569879694e-05</v>
       </c>
       <c r="C38" t="n">
-        <v>9.34916778645946e-07</v>
+        <v>5.350550897843821e-07</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -977,13 +977,13 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>3.708276106910262</v>
+        <v>3.709964370885666</v>
       </c>
       <c r="B39" t="n">
-        <v>1.949917286861132e-05</v>
+        <v>9.271737689297937e-06</v>
       </c>
       <c r="C39" t="n">
-        <v>8.395327332728082e-07</v>
+        <v>4.078759949275751e-07</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -993,13 +993,13 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>3.709964370885666</v>
+        <v>3.710855637146794</v>
       </c>
       <c r="B40" t="n">
-        <v>1.568393851868086e-05</v>
+        <v>1.134572071504679e-05</v>
       </c>
       <c r="C40" t="n">
-        <v>6.559205155549987e-07</v>
+        <v>5.458291555413424e-07</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1009,13 +1009,13 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>3.710855637146794</v>
+        <v>3.711772613011608</v>
       </c>
       <c r="B41" t="n">
-        <v>1.690571948594543e-05</v>
+        <v>1.710263308225266e-05</v>
       </c>
       <c r="C41" t="n">
-        <v>7.945849989354883e-07</v>
+        <v>5.847462101027822e-07</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1025,13 +1025,13 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>3.711772613011608</v>
+        <v>3.713529435930176</v>
       </c>
       <c r="B42" t="n">
-        <v>2.533503798965327e-05</v>
+        <v>1.750590889163406e-05</v>
       </c>
       <c r="C42" t="n">
-        <v>8.448316466746771e-07</v>
+        <v>5.294113816311622e-07</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1041,13 +1041,13 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>3.713529435930176</v>
+        <v>3.715166280698207</v>
       </c>
       <c r="B43" t="n">
-        <v>2.556317677259932e-05</v>
+        <v>1.636208902411694e-05</v>
       </c>
       <c r="C43" t="n">
-        <v>7.595638538659731e-07</v>
+        <v>4.744840121226472e-07</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1057,13 +1057,13 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>3.715166280698207</v>
+        <v>3.719356946099085</v>
       </c>
       <c r="B44" t="n">
-        <v>2.481117919374958e-05</v>
+        <v>1.478899019514639e-05</v>
       </c>
       <c r="C44" t="n">
-        <v>7.035671766816475e-07</v>
+        <v>4.198387599585925e-07</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1073,13 +1073,13 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>3.719356946099085</v>
+        <v>3.723504762160485</v>
       </c>
       <c r="B45" t="n">
-        <v>2.238432508540996e-05</v>
+        <v>1.561740343122481e-05</v>
       </c>
       <c r="C45" t="n">
-        <v>6.213727314554294e-07</v>
+        <v>4.371393696650803e-07</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1089,13 +1089,13 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>3.723504762160485</v>
+        <v>3.727875394787168</v>
       </c>
       <c r="B46" t="n">
-        <v>2.298230328225498e-05</v>
+        <v>1.516175084933548e-05</v>
       </c>
       <c r="C46" t="n">
-        <v>6.27787482285383e-07</v>
+        <v>4.114024464504e-07</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1105,13 +1105,13 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>3.727875394787168</v>
+        <v>3.745075119653346</v>
       </c>
       <c r="B47" t="n">
-        <v>2.223068446639253e-05</v>
+        <v>1.019531776715427e-05</v>
       </c>
       <c r="C47" t="n">
-        <v>5.949437584368364e-07</v>
+        <v>3.006013855888984e-07</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1121,13 +1121,13 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>3.745075119653346</v>
+        <v>3.762300554123211</v>
       </c>
       <c r="B48" t="n">
-        <v>1.544380657622781e-05</v>
+        <v>1.356629258026172e-05</v>
       </c>
       <c r="C48" t="n">
-        <v>4.451018566206278e-07</v>
+        <v>3.848300151479521e-07</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1137,13 +1137,13 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>3.762300554123211</v>
+        <v>3.779337451499375</v>
       </c>
       <c r="B49" t="n">
-        <v>2.03321307132327e-05</v>
+        <v>2.044429235985378e-05</v>
       </c>
       <c r="C49" t="n">
-        <v>5.636614685963466e-07</v>
+        <v>5.578594372493102e-07</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1153,13 +1153,13 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>3.779337451499375</v>
+        <v>3.788087286620635</v>
       </c>
       <c r="B50" t="n">
-        <v>3.028117173227794e-05</v>
+        <v>2.963706162891428e-05</v>
       </c>
       <c r="C50" t="n">
-        <v>8.086835990785193e-07</v>
+        <v>7.913804868397059e-07</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1169,13 +1169,13 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>3.788087286620635</v>
+        <v>3.796605735308717</v>
       </c>
       <c r="B51" t="n">
-        <v>4.446611586523098e-05</v>
+        <v>4.075871733760341e-05</v>
       </c>
       <c r="C51" t="n">
-        <v>1.181510941854915e-06</v>
+        <v>1.036590121062254e-06</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1185,13 +1185,13 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>3.796605735308717</v>
+        <v>3.805055625053636</v>
       </c>
       <c r="B52" t="n">
-        <v>6.127986874284483e-05</v>
+        <v>8.598387592427764e-05</v>
       </c>
       <c r="C52" t="n">
-        <v>1.538347651530562e-06</v>
+        <v>2.240677942332022e-06</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1201,13 +1201,13 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>3.805055625053636</v>
+        <v>3.813539794270136</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0001263625101017837</v>
+        <v>0.0001458136699369737</v>
       </c>
       <c r="C53" t="n">
-        <v>3.253957639686898e-06</v>
+        <v>3.649287300757469e-06</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1217,13 +1217,13 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>3.813539794270136</v>
+        <v>3.817867577557342</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0002182256120124949</v>
+        <v>0.0004004202966473285</v>
       </c>
       <c r="C54" t="n">
-        <v>5.401486340934383e-06</v>
+        <v>9.996187924286117e-06</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1233,13 +1233,13 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>3.817867577557342</v>
+        <v>3.82226391978771</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0005926662647069509</v>
+        <v>0.0006483919947153341</v>
       </c>
       <c r="C55" t="n">
-        <v>1.467411438197301e-05</v>
+        <v>1.57047433827071e-05</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1249,13 +1249,13 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>3.82226391978771</v>
+        <v>3.830696669796837</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0009582852285062902</v>
+        <v>0.0007147581219881063</v>
       </c>
       <c r="C56" t="n">
-        <v>2.306705929866229e-05</v>
+        <v>1.693056360937979e-05</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1265,13 +1265,13 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>3.830696669796837</v>
+        <v>3.837569703848993</v>
       </c>
       <c r="B57" t="n">
-        <v>0.001063184592376803</v>
+        <v>0.0005766112586068361</v>
       </c>
       <c r="C57" t="n">
-        <v>2.504319733978428e-05</v>
+        <v>1.377422293639091e-05</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1281,13 +1281,13 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>3.837569703848993</v>
+        <v>3.844554146183789</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0008569941745159897</v>
+        <v>0.0002992652947220026</v>
       </c>
       <c r="C58" t="n">
-        <v>2.032576548954502e-05</v>
+        <v>7.163675861506472e-06</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1297,13 +1297,13 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>3.844554146183789</v>
+        <v>3.846319538970252</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0004415282268501069</v>
+        <v>0.0002292299922823062</v>
       </c>
       <c r="C59" t="n">
-        <v>1.052355483308679e-05</v>
+        <v>5.498349521899253e-06</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -1313,13 +1313,13 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>3.846319538970252</v>
+        <v>3.847930674134597</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0003404732209370016</v>
+        <v>0.0002906100887307447</v>
       </c>
       <c r="C60" t="n">
-        <v>8.137744789422501e-06</v>
+        <v>6.872802745911544e-06</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -1329,13 +1329,13 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>3.847930674134597</v>
+        <v>3.84977319573212</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0004314057254518509</v>
+        <v>0.0001283819086729053</v>
       </c>
       <c r="C61" t="n">
-        <v>1.018191526763829e-05</v>
+        <v>3.08026517106216e-06</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1345,13 +1345,13 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>3.84977319573212</v>
+        <v>3.852147049139162</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0001908849694768657</v>
+        <v>9.289642636719077e-05</v>
       </c>
       <c r="C62" t="n">
-        <v>4.538964403118898e-06</v>
+        <v>2.186817330522822e-06</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -1361,13 +1361,13 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>3.852147049139162</v>
+        <v>3.856414843351097</v>
       </c>
       <c r="B63" t="n">
-        <v>0.000136927733355247</v>
+        <v>5.374788160494251e-05</v>
       </c>
       <c r="C63" t="n">
-        <v>3.199745047055465e-06</v>
+        <v>1.305302813375298e-06</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -1377,13 +1377,13 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>3.856414843351097</v>
+        <v>3.865190388076044</v>
       </c>
       <c r="B64" t="n">
-        <v>7.904121074309059e-05</v>
+        <v>2.823920079154378e-05</v>
       </c>
       <c r="C64" t="n">
-        <v>1.897540378628586e-06</v>
+        <v>7.084124544612687e-07</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -1393,13 +1393,13 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>3.865190388076044</v>
+        <v>3.866878652051449</v>
       </c>
       <c r="B65" t="n">
-        <v>4.232526788090387e-05</v>
+        <v>2.167252186750793e-05</v>
       </c>
       <c r="C65" t="n">
-        <v>1.053645761973135e-06</v>
+        <v>6.844828244974497e-07</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -1409,13 +1409,13 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>3.866878652051449</v>
+        <v>3.869363913741131</v>
       </c>
       <c r="B66" t="n">
-        <v>3.239164734309155e-05</v>
+        <v>2.188680757823856e-05</v>
       </c>
       <c r="C66" t="n">
-        <v>9.995939387196987e-07</v>
+        <v>9.396841727795293e-07</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -1425,13 +1425,13 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>3.869363913741131</v>
+        <v>3.873640277820963</v>
       </c>
       <c r="B67" t="n">
-        <v>3.166647629919657e-05</v>
+        <v>2.620035401489747e-05</v>
       </c>
       <c r="C67" t="n">
-        <v>1.336347292542397e-06</v>
+        <v>1.19831632383071e-06</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -1441,13 +1441,13 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>3.873640277820963</v>
+        <v>3.878070899522913</v>
       </c>
       <c r="B68" t="n">
-        <v>3.845552099368604e-05</v>
+        <v>3.344122277121999e-05</v>
       </c>
       <c r="C68" t="n">
-        <v>1.712901267701423e-06</v>
+        <v>1.749411638575037e-06</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -1457,13 +1457,13 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>3.878070899522913</v>
+        <v>3.881644534435317</v>
       </c>
       <c r="B69" t="n">
-        <v>5.328559449201074e-05</v>
+        <v>3.234275566213716e-05</v>
       </c>
       <c r="C69" t="n">
-        <v>2.6440978297885e-06</v>
+        <v>1.514399844085007e-06</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -1473,13 +1473,13 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>3.881644534435317</v>
+        <v>3.88648650979625</v>
       </c>
       <c r="B70" t="n">
-        <v>4.964858908616196e-05</v>
+        <v>6.911220240277263e-05</v>
       </c>
       <c r="C70" t="n">
-        <v>2.244877864411099e-06</v>
+        <v>3.15938251483729e-06</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -1489,13 +1489,13 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>3.88648650979625</v>
+        <v>3.890925701366096</v>
       </c>
       <c r="B71" t="n">
-        <v>9.940627990980077e-05</v>
+        <v>0.0001053149775730746</v>
       </c>
       <c r="C71" t="n">
-        <v>4.373561708754763e-06</v>
+        <v>4.571483455129748e-06</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -1505,13 +1505,13 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>3.890925701366096</v>
+        <v>3.899118495074151</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0001507150311785344</v>
+        <v>0.0002559412446372343</v>
       </c>
       <c r="C72" t="n">
-        <v>6.462703564555959e-06</v>
+        <v>6.681645823745863e-06</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -1521,13 +1521,13 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>3.899118495074151</v>
+        <v>3.908014017949633</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0003787155358604724</v>
+        <v>0.00064708924827766</v>
       </c>
       <c r="C73" t="n">
-        <v>9.776923078033988e-06</v>
+        <v>1.651345698519055e-05</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -1537,13 +1537,13 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>3.908014017949633</v>
+        <v>3.916541036505611</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0009631529328086028</v>
+        <v>0.0006387892865982628</v>
       </c>
       <c r="C74" t="n">
-        <v>2.428970772223932e-05</v>
+        <v>1.635512237350928e-05</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -1553,13 +1553,13 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>3.916541036505611</v>
+        <v>3.925025205722112</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0009543939364211854</v>
+        <v>0.000348337397163955</v>
       </c>
       <c r="C75" t="n">
-        <v>2.423415180959908e-05</v>
+        <v>9.895945164936488e-06</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -1569,13 +1569,13 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>3.925025205722112</v>
+        <v>3.933637922957044</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0005168465668587397</v>
+        <v>0.0001821895223073151</v>
       </c>
       <c r="C76" t="n">
-        <v>1.44516076635472e-05</v>
+        <v>5.12517643022432e-06</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -1585,13 +1585,13 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>3.933637922957044</v>
+        <v>3.942370618342513</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0002736583543507506</v>
+        <v>9.162288040498924e-05</v>
       </c>
       <c r="C77" t="n">
-        <v>7.599071387365537e-06</v>
+        <v>3.060335483323767e-06</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -1601,13 +1601,13 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>3.942370618342513</v>
+        <v>3.950700529936895</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0001359410796625001</v>
+        <v>9.488424176313315e-05</v>
       </c>
       <c r="C78" t="n">
-        <v>4.416175246555004e-06</v>
+        <v>3.616018659520721e-06</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -1617,13 +1617,13 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>3.950700529936895</v>
+        <v>3.959476074661841</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0001380834907573007</v>
+        <v>6.68405947524277e-05</v>
       </c>
       <c r="C79" t="n">
-        <v>5.182751817387729e-06</v>
+        <v>3.325336914554065e-06</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -1633,13 +1633,13 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>3.959476074661841</v>
+        <v>3.967797416388328</v>
       </c>
       <c r="B80" t="n">
-        <v>9.17143035505607e-05</v>
+        <v>5.943658622827903e-05</v>
       </c>
       <c r="C80" t="n">
-        <v>4.59571121798428e-06</v>
+        <v>2.54307004599318e-06</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -1649,13 +1649,13 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>3.967797416388328</v>
+        <v>3.97227945729765</v>
       </c>
       <c r="B81" t="n">
-        <v>8.779234615064503e-05</v>
+        <v>3.822632645391872e-05</v>
       </c>
       <c r="C81" t="n">
-        <v>3.669835145920395e-06</v>
+        <v>1.702247362566023e-06</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -1665,13 +1665,13 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>3.97227945729765</v>
+        <v>3.976384424019573</v>
       </c>
       <c r="B82" t="n">
-        <v>5.303858575673652e-05</v>
+        <v>4.347846010805113e-05</v>
       </c>
       <c r="C82" t="n">
-        <v>2.334484100456795e-06</v>
+        <v>1.601525870898284e-06</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -1681,13 +1681,13 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>3.976384424019573</v>
+        <v>3.984954291915029</v>
       </c>
       <c r="B83" t="n">
-        <v>6.439578297483207e-05</v>
+        <v>9.333485546735955e-05</v>
       </c>
       <c r="C83" t="n">
-        <v>2.312557739975019e-06</v>
+        <v>2.646125995689087e-06</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -1697,13 +1697,13 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>3.984954291915029</v>
+        <v>4.002231145592266</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0001383168827152918</v>
+        <v>6.305579840389958e-05</v>
       </c>
       <c r="C84" t="n">
-        <v>3.855814130553119e-06</v>
+        <v>1.696773810959555e-06</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -1713,13 +1713,13 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>4.002231145592266</v>
+        <v>4.010826723091408</v>
       </c>
       <c r="B85" t="n">
-        <v>9.275131165650114e-05</v>
+        <v>2.822038819035869e-05</v>
       </c>
       <c r="C85" t="n">
-        <v>2.460002785432351e-06</v>
+        <v>8.245084578040502e-07</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -1729,13 +1729,13 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>4.010826723091408</v>
+        <v>4.019208053893163</v>
       </c>
       <c r="B86" t="n">
-        <v>4.22989296542532e-05</v>
+        <v>2.437189392206575e-05</v>
       </c>
       <c r="C86" t="n">
-        <v>1.203834838586039e-06</v>
+        <v>7.013401470071529e-07</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -1745,13 +1745,13 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>4.019208053893163</v>
+        <v>4.036424918495132</v>
       </c>
       <c r="B87" t="n">
-        <v>3.60341091931663e-05</v>
+        <v>2.232557054880997e-05</v>
       </c>
       <c r="C87" t="n">
-        <v>1.02459730230661e-06</v>
+        <v>5.825150996599339e-07</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -1761,13 +1761,13 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>4.036424918495132</v>
+        <v>4.053547514550251</v>
       </c>
       <c r="B88" t="n">
-        <v>3.336456983945779e-05</v>
+        <v>2.864407127555294e-05</v>
       </c>
       <c r="C88" t="n">
-        <v>8.601439996650482e-07</v>
+        <v>7.594049159989366e-07</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -1777,13 +1777,13 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>4.053547514550251</v>
+        <v>4.070687250341162</v>
       </c>
       <c r="B89" t="n">
-        <v>4.231713469963901e-05</v>
+        <v>5.179120576622905e-05</v>
       </c>
       <c r="C89" t="n">
-        <v>1.103907373569875e-06</v>
+        <v>1.306001607467325e-06</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -1793,13 +1793,13 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>4.070687250341162</v>
+        <v>4.075126441911007</v>
       </c>
       <c r="B90" t="n">
-        <v>7.729652557503317e-05</v>
+        <v>0.0001200743724731021</v>
       </c>
       <c r="C90" t="n">
-        <v>1.929061907697024e-06</v>
+        <v>2.907293086394077e-06</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -1809,13 +1809,13 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>4.075126441911007</v>
+        <v>4.078297293032326</v>
       </c>
       <c r="B91" t="n">
-        <v>0.000177224234133727</v>
+        <v>0.0001350022072627554</v>
       </c>
       <c r="C91" t="n">
-        <v>4.26144327401046e-06</v>
+        <v>3.250615806927412e-06</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -1825,13 +1825,13 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>4.078297293032326</v>
+        <v>4.087861265603653</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0001997698202726203</v>
+        <v>0.0001576588006929124</v>
       </c>
       <c r="C92" t="n">
-        <v>4.776893735677144e-06</v>
+        <v>3.780110306164908e-06</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -1841,13 +1841,13 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>4.087861265603653</v>
+        <v>4.09212905981559</v>
       </c>
       <c r="B93" t="n">
-        <v>0.0002343713563447942</v>
+        <v>0.0001635376255191664</v>
       </c>
       <c r="C93" t="n">
-        <v>5.590955107644493e-06</v>
+        <v>4.067935996324168e-06</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -1857,13 +1857,13 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>4.09212905981559</v>
+        <v>4.096551111649645</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0002426459409043006</v>
+        <v>0.0001458598430857729</v>
       </c>
       <c r="C94" t="n">
-        <v>5.972196243685393e-06</v>
+        <v>4.262527292678648e-06</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -1873,13 +1873,13 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>4.096551111649645</v>
+        <v>4.105069560337727</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0002163150981776299</v>
+        <v>0.0001279287985448936</v>
       </c>
       <c r="C95" t="n">
-        <v>6.191238263900827e-06</v>
+        <v>3.735613393881529e-06</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -1889,13 +1889,13 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>4.105069560337727</v>
+        <v>4.113468030875272</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0001882858360136624</v>
+        <v>9.621538420290095e-05</v>
       </c>
       <c r="C96" t="n">
-        <v>5.421715361919358e-06</v>
+        <v>2.771978065545607e-06</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -1905,13 +1905,13 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>4.113468030875272</v>
+        <v>4.122132167317578</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0001426952023311678</v>
+        <v>8.791764924378772e-05</v>
       </c>
       <c r="C97" t="n">
-        <v>4.036771405697978e-06</v>
+        <v>2.443019658232354e-06</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -1921,13 +1921,13 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>4.122132167317578</v>
+        <v>4.12395754917931</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0001322098791787746</v>
+        <v>8.270425588248438e-05</v>
       </c>
       <c r="C98" t="n">
-        <v>3.611974260118438e-06</v>
+        <v>2.109453008293671e-06</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -1937,13 +1937,13 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>4.12395754917931</v>
+        <v>4.126622778094797</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0001241398344615859</v>
+        <v>8.347065135287189e-05</v>
       </c>
       <c r="C99" t="n">
-        <v>3.127921760483665e-06</v>
+        <v>2.027135351496373e-06</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -1953,13 +1953,13 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>4.126622778094797</v>
+        <v>4.13072774481672</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0001219946641365947</v>
+        <v>8.116038279066642e-05</v>
       </c>
       <c r="C100" t="n">
-        <v>2.929544816256031e-06</v>
+        <v>1.885754330586899e-06</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -1969,13 +1969,13 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>4.13072774481672</v>
+        <v>4.139151924957952</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0001205960902939499</v>
+        <v>8.186415338145527e-05</v>
       </c>
       <c r="C101" t="n">
-        <v>2.790534274684394e-06</v>
+        <v>1.842315544785584e-06</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -1985,13 +1985,13 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>4.139151924957952</v>
+        <v>4.156411638899399</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0001210103025090819</v>
+        <v>9.572514903772861e-05</v>
       </c>
       <c r="C102" t="n">
-        <v>2.712256359028854e-06</v>
+        <v>2.116395033237747e-06</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -2001,13 +2001,13 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>4.156411638899399</v>
+        <v>4.170346244097408</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0001425781764991578</v>
+        <v>0.0001283202703444668</v>
       </c>
       <c r="C103" t="n">
-        <v>3.149739288300751e-06</v>
+        <v>2.81602566577747e-06</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -2017,13 +2017,13 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>4.170346244097408</v>
+        <v>4.190571132330683</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0001901936751659223</v>
+        <v>0.0002104222491540148</v>
       </c>
       <c r="C104" t="n">
-        <v>4.178940872554646e-06</v>
+        <v>4.538234782585476e-06</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -2033,13 +2033,13 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>4.190571132330683</v>
+        <v>4.199158139961929</v>
       </c>
       <c r="B105" t="n">
-        <v>0.0003112052822212022</v>
+        <v>0.0003220486683357956</v>
       </c>
       <c r="C105" t="n">
-        <v>6.730667643760848e-06</v>
+        <v>7.032358157129405e-06</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -2049,13 +2049,13 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>4.199158139961929</v>
+        <v>4.207916544951084</v>
       </c>
       <c r="B106" t="n">
-        <v>0.0004760324603332221</v>
+        <v>0.0004254010167138297</v>
       </c>
       <c r="C106" t="n">
-        <v>1.039853321623057e-05</v>
+        <v>9.193861452879691e-06</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -2065,13 +2065,13 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>4.207916544951084</v>
+        <v>4.216340725092316</v>
       </c>
       <c r="B107" t="n">
-        <v>0.000630077284700765</v>
+        <v>0.0005666451978522166</v>
       </c>
       <c r="C107" t="n">
-        <v>1.364403513087675e-05</v>
+        <v>1.229521080157715e-05</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -2081,13 +2081,13 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>4.216340725092316</v>
+        <v>4.221645473319603</v>
       </c>
       <c r="B108" t="n">
-        <v>0.0008384969194547299</v>
+        <v>0.0007058018680730735</v>
       </c>
       <c r="C108" t="n">
-        <v>1.821497936736841e-05</v>
+        <v>1.510785808988403e-05</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -2097,13 +2097,13 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>4.221645473319603</v>
+        <v>4.225107699949367</v>
       </c>
       <c r="B109" t="n">
-        <v>0.001044370188735925</v>
+        <v>0.0007632444899812367</v>
       </c>
       <c r="C109" t="n">
-        <v>2.242258759260936e-05</v>
+        <v>1.640545572217535e-05</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -2113,13 +2113,13 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>4.225107699949367</v>
+        <v>4.230875221043007</v>
       </c>
       <c r="B110" t="n">
-        <v>0.001129330345374686</v>
+        <v>0.0009493180187277939</v>
       </c>
       <c r="C110" t="n">
-        <v>2.431463334135472e-05</v>
+        <v>2.025773734732967e-05</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -2129,13 +2129,13 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>4.230875221043007</v>
+        <v>4.23929940118424</v>
       </c>
       <c r="B111" t="n">
-        <v>0.001408721165359353</v>
+        <v>0.00116664734932758</v>
       </c>
       <c r="C111" t="n">
-        <v>3.017300217084615e-05</v>
+        <v>2.492432613821252e-05</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -2145,13 +2145,13 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>4.23929940118424</v>
+        <v>4.24231599468344</v>
       </c>
       <c r="B112" t="n">
-        <v>0.00172802823442015</v>
+        <v>0.001179365448335933</v>
       </c>
       <c r="C112" t="n">
-        <v>3.702886873408446e-05</v>
+        <v>2.526783017109706e-05</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -2161,13 +2161,13 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>4.24231599468344</v>
+        <v>4.24787783894759</v>
       </c>
       <c r="B113" t="n">
-        <v>0.001747622327910624</v>
+        <v>0.001323736719372463</v>
       </c>
       <c r="C113" t="n">
-        <v>3.75549396914522e-05</v>
+        <v>2.832863777259379e-05</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -2177,13 +2177,13 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>4.24787783894759</v>
+        <v>4.252257041442167</v>
       </c>
       <c r="B114" t="n">
-        <v>0.001960273931931118</v>
+        <v>0.001353048945555235</v>
       </c>
       <c r="C114" t="n">
-        <v>4.207285623854011e-05</v>
+        <v>2.892491578799672e-05</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -2193,13 +2193,13 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>4.252257041442167</v>
+        <v>4.25472516339606</v>
       </c>
       <c r="B115" t="n">
-        <v>0.002002077965636846</v>
+        <v>0.001343632386193721</v>
       </c>
       <c r="C115" t="n">
-        <v>4.291353554288769e-05</v>
+        <v>2.874933065737984e-05</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -2209,13 +2209,13 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>4.25472516339606</v>
+        <v>4.25739896217944</v>
       </c>
       <c r="B116" t="n">
-        <v>0.001989471992682378</v>
+        <v>0.00132125263787467</v>
       </c>
       <c r="C116" t="n">
-        <v>4.271799930208804e-05</v>
+        <v>2.825278278442253e-05</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -2225,13 +2225,13 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>4.25739896217944</v>
+        <v>4.259258623512755</v>
       </c>
       <c r="B117" t="n">
-        <v>0.001956536219479135</v>
+        <v>0.001324503908421497</v>
       </c>
       <c r="C117" t="n">
-        <v>4.198025038313658e-05</v>
+        <v>2.841081650296451e-05</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -2241,13 +2241,13 @@
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>4.259258623512755</v>
+        <v>4.2616239070519</v>
       </c>
       <c r="B118" t="n">
-        <v>0.001956175678390461</v>
+        <v>0.00125782267225719</v>
       </c>
       <c r="C118" t="n">
-        <v>4.204837166904317e-05</v>
+        <v>2.68780692136999e-05</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -2257,13 +2257,13 @@
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>4.2616239070519</v>
+        <v>4.263192192876769</v>
       </c>
       <c r="B119" t="n">
-        <v>0.00185830338295451</v>
+        <v>0.001225281906263601</v>
       </c>
       <c r="C119" t="n">
-        <v>3.982872101769339e-05</v>
+        <v>2.62354466504159e-05</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -2273,13 +2273,13 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>4.263192192876769</v>
+        <v>4.271830619715387</v>
       </c>
       <c r="B120" t="n">
-        <v>0.001813632665868387</v>
+        <v>0.001008339295102033</v>
       </c>
       <c r="C120" t="n">
-        <v>3.89421064086438e-05</v>
+        <v>2.161533231516354e-05</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -2289,13 +2289,13 @@
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>4.271830619715387</v>
+        <v>4.27642406890735</v>
       </c>
       <c r="B121" t="n">
-        <v>0.001490922781147</v>
+        <v>0.0009354744297227361</v>
       </c>
       <c r="C121" t="n">
-        <v>3.205120689891538e-05</v>
+        <v>2.00914739787491e-05</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -2305,13 +2305,13 @@
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>4.27642406890735</v>
+        <v>4.28036620813926</v>
       </c>
       <c r="B122" t="n">
-        <v>0.001384950065970084</v>
+        <v>0.0007866759866496458</v>
       </c>
       <c r="C122" t="n">
-        <v>2.982398111242969e-05</v>
+        <v>1.682414230989292e-05</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -2321,13 +2321,13 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>4.28036620813926</v>
+        <v>4.28891036643103</v>
       </c>
       <c r="B123" t="n">
-        <v>0.001166153596244909</v>
+        <v>0.0006120569535297865</v>
       </c>
       <c r="C123" t="n">
-        <v>2.502970596764147e-05</v>
+        <v>1.310458936012703e-05</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -2337,13 +2337,13 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>4.28891036643103</v>
+        <v>4.293495245755098</v>
       </c>
       <c r="B124" t="n">
-        <v>0.0009057378635669149</v>
+        <v>0.0005593383933698716</v>
       </c>
       <c r="C124" t="n">
-        <v>1.943802121818576e-05</v>
+        <v>1.20968902682504e-05</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -2353,13 +2353,13 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>4.293495245755098</v>
+        <v>4.297651631684394</v>
       </c>
       <c r="B125" t="n">
-        <v>0.0008269545094109347</v>
+        <v>0.0004809554225394651</v>
       </c>
       <c r="C125" t="n">
-        <v>1.791992706080614e-05</v>
+        <v>1.032936695166285e-05</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -2369,13 +2369,13 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>4.297651631684394</v>
+        <v>4.300136893374075</v>
       </c>
       <c r="B126" t="n">
-        <v>0.0007129178071506003</v>
+        <v>0.0004580511732173382</v>
       </c>
       <c r="C126" t="n">
-        <v>1.536191635205619e-05</v>
+        <v>9.911642822959114e-06</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -2385,13 +2385,13 @@
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>4.300136893374075</v>
+        <v>4.300239731788821</v>
       </c>
       <c r="B127" t="n">
-        <v>0.000678726262623936</v>
+        <v>0.0004592097130561311</v>
       </c>
       <c r="C127" t="n">
-        <v>1.470735669632572e-05</v>
+        <v>9.92111910773569e-06</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -2401,13 +2401,13 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>4.300239731788821</v>
+        <v>4.30191942589633</v>
       </c>
       <c r="B128" t="n">
-        <v>0.0006817380052267123</v>
+        <v>0.0004545111473396111</v>
       </c>
       <c r="C128" t="n">
-        <v>1.476118670412614e-05</v>
+        <v>9.926124824908462e-06</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -2417,13 +2417,13 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>4.30191942589633</v>
+        <v>4.306187220108267</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0006744656518929771</v>
+        <v>0.0004413905903409231</v>
       </c>
       <c r="C129" t="n">
-        <v>1.474780154147297e-05</v>
+        <v>9.915210600602976e-06</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -2433,13 +2433,13 @@
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>4.306187220108267</v>
+        <v>4.308783890080591</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0006546964268451624</v>
+        <v>0.0004446780639924145</v>
       </c>
       <c r="C130" t="n">
-        <v>1.466678935655357e-05</v>
+        <v>1.005670946384496e-05</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -2449,13 +2449,13 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>4.308783890080591</v>
+        <v>4.310729250092858</v>
       </c>
       <c r="B131" t="n">
-        <v>0.0006590732738453285</v>
+        <v>0.0004497149283296686</v>
       </c>
       <c r="C131" t="n">
-        <v>1.489237340340699e-05</v>
+        <v>1.03355350703598e-05</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -2465,13 +2465,13 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>4.310729250092858</v>
+        <v>4.31302597468884</v>
       </c>
       <c r="B132" t="n">
-        <v>0.00066782638487294</v>
+        <v>0.0005026778059218666</v>
       </c>
       <c r="C132" t="n">
-        <v>1.529226382490953e-05</v>
+        <v>1.130973433685153e-05</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -2481,13 +2481,13 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>4.31302597468884</v>
+        <v>4.315699773472222</v>
       </c>
       <c r="B133" t="n">
-        <v>0.0007419073106776131</v>
+        <v>0.0005481529164959392</v>
       </c>
       <c r="C133" t="n">
-        <v>1.666135110825975e-05</v>
+        <v>1.23062747845229e-05</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -2497,13 +2497,13 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>4.315699773472222</v>
+        <v>4.318107906350845</v>
       </c>
       <c r="B134" t="n">
-        <v>0.0008110984407361676</v>
+        <v>0.0005765052581455648</v>
       </c>
       <c r="C134" t="n">
-        <v>1.816570327552564e-05</v>
+        <v>1.293257067969349e-05</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -2513,13 +2513,13 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>4.318107906350845</v>
+        <v>4.320910253152659</v>
       </c>
       <c r="B135" t="n">
-        <v>0.0008505458412969131</v>
+        <v>0.0005815453425130225</v>
       </c>
       <c r="C135" t="n">
-        <v>1.903922079724162e-05</v>
+        <v>1.315014957304038e-05</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -2529,13 +2529,13 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>4.320910253152659</v>
+        <v>4.323318386031281</v>
       </c>
       <c r="B136" t="n">
-        <v>0.0008632031472484797</v>
+        <v>0.0005704039690835095</v>
       </c>
       <c r="C136" t="n">
-        <v>1.948063795473973e-05</v>
+        <v>1.283112793863532e-05</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -2545,13 +2545,13 @@
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>4.323318386031281</v>
+        <v>4.327757577601127</v>
       </c>
       <c r="B137" t="n">
-        <v>0.0008429456624808793</v>
+        <v>0.0005421480398599475</v>
       </c>
       <c r="C137" t="n">
-        <v>1.891068884326007e-05</v>
+        <v>1.223729676398701e-05</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -2561,13 +2561,13 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>4.327757577601127</v>
+        <v>4.331931103266214</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0007998222066655566</v>
+        <v>0.0004652909072460537</v>
       </c>
       <c r="C138" t="n">
-        <v>1.800918695377227e-05</v>
+        <v>1.038594258950495e-05</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -2577,13 +2577,13 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>4.331931103266214</v>
+        <v>4.340535250633251</v>
       </c>
       <c r="B139" t="n">
-        <v>0.0006899870105582029</v>
+        <v>0.0002914519151903295</v>
       </c>
       <c r="C139" t="n">
-        <v>1.537850721590938e-05</v>
+        <v>6.517321047584545e-06</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -2593,13 +2593,13 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>4.340535250633251</v>
+        <v>4.344845894184665</v>
       </c>
       <c r="B140" t="n">
-        <v>0.0004307616918998181</v>
+        <v>0.0002458982137642296</v>
       </c>
       <c r="C140" t="n">
-        <v>9.611050583105931e-06</v>
+        <v>5.594289311332589e-06</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -2609,13 +2609,13 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>4.344845894184665</v>
+        <v>4.348762323812888</v>
       </c>
       <c r="B141" t="n">
-        <v>0.0003614754930338811</v>
+        <v>0.000196526042366269</v>
       </c>
       <c r="C141" t="n">
-        <v>8.177765913390875e-06</v>
+        <v>4.367131523878165e-06</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -2625,13 +2625,13 @@
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>4.348762323812888</v>
+        <v>4.357083665539375</v>
       </c>
       <c r="B142" t="n">
-        <v>0.0002915168901096309</v>
+        <v>0.0001518874629243444</v>
       </c>
       <c r="C142" t="n">
-        <v>6.476610315976711e-06</v>
+        <v>3.43692779534213e-06</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -2641,13 +2641,13 @@
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>4.357083665539375</v>
+        <v>4.362054188918739</v>
       </c>
       <c r="B143" t="n">
-        <v>0.0002249272321056445</v>
+        <v>0.0001429236585382152</v>
       </c>
       <c r="C143" t="n">
-        <v>5.081969561506614e-06</v>
+        <v>3.308823131941257e-06</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -2657,13 +2657,13 @@
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>4.362054188918739</v>
+        <v>4.365250749643743</v>
       </c>
       <c r="B144" t="n">
-        <v>0.0002126004864517632</v>
+        <v>0.0001406361268284369</v>
       </c>
       <c r="C144" t="n">
-        <v>4.892539232373155e-06</v>
+        <v>3.69318539691257e-06</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -2673,13 +2673,13 @@
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>4.365250749643743</v>
+        <v>4.367855989483961</v>
       </c>
       <c r="B145" t="n">
-        <v>0.0002052053283326672</v>
+        <v>0.0001435784801030762</v>
       </c>
       <c r="C145" t="n">
-        <v>5.322984147116961e-06</v>
+        <v>3.616081171887627e-06</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -2689,13 +2689,13 @@
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>4.367855989483961</v>
+        <v>4.369681371345694</v>
       </c>
       <c r="B146" t="n">
-        <v>0.0002137017405652374</v>
+        <v>0.0001366878406123011</v>
       </c>
       <c r="C146" t="n">
-        <v>5.324129042333078e-06</v>
+        <v>3.700134658141374e-06</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -2705,13 +2705,13 @@
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>4.369681371345694</v>
+        <v>4.370624056814194</v>
       </c>
       <c r="B147" t="n">
-        <v>0.0002026587646985162</v>
+        <v>0.0001359435454987607</v>
       </c>
       <c r="C147" t="n">
-        <v>5.402382141277157e-06</v>
+        <v>3.807380602916134e-06</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -2721,13 +2721,13 @@
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>4.370624056814194</v>
+        <v>4.371001131001594</v>
       </c>
       <c r="B148" t="n">
-        <v>0.0002022090519357687</v>
+        <v>0.0001366123718327163</v>
       </c>
       <c r="C148" t="n">
-        <v>5.556024469294935e-06</v>
+        <v>3.803640749832629e-06</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -2737,13 +2737,13 @@
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>4.371001131001594</v>
+        <v>4.371241087302666</v>
       </c>
       <c r="B149" t="n">
-        <v>0.0002023829612722775</v>
+        <v>0.0001361220669321244</v>
       </c>
       <c r="C149" t="n">
-        <v>5.556045018596934e-06</v>
+        <v>3.774975756038415e-06</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -2753,13 +2753,13 @@
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>4.371241087302666</v>
+        <v>4.37310074863598</v>
       </c>
       <c r="B150" t="n">
-        <v>0.000199147001410306</v>
+        <v>0.0001341115842147438</v>
       </c>
       <c r="C150" t="n">
-        <v>5.456425430809075e-06</v>
+        <v>3.766131913653078e-06</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -2769,13 +2769,13 @@
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>4.37310074863598</v>
+        <v>4.37479758247928</v>
       </c>
       <c r="B151" t="n">
-        <v>0.000199487895589295</v>
+        <v>0.0001316948281702436</v>
       </c>
       <c r="C151" t="n">
-        <v>5.502656098329531e-06</v>
+        <v>3.668575921541007e-06</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -2785,13 +2785,13 @@
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>4.37479758247928</v>
+        <v>4.376545835529954</v>
       </c>
       <c r="B152" t="n">
-        <v>0.0001927608961108338</v>
+        <v>0.0001318898045597999</v>
       </c>
       <c r="C152" t="n">
-        <v>5.267431011081333e-06</v>
+        <v>3.738690678368867e-06</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -2801,13 +2801,13 @@
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>4.376545835529954</v>
+        <v>4.378156970694299</v>
       </c>
       <c r="B153" t="n">
-        <v>0.0001916618152383794</v>
+        <v>0.0001183849360322415</v>
       </c>
       <c r="C153" t="n">
-        <v>5.348922709570318e-06</v>
+        <v>3.349296804335401e-06</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -2817,13 +2817,13 @@
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>4.378156970694299</v>
+        <v>4.379236774049127</v>
       </c>
       <c r="B154" t="n">
-        <v>0.0001775980749345649</v>
+        <v>0.0001204346355127321</v>
       </c>
       <c r="C154" t="n">
-        <v>4.932039005469098e-06</v>
+        <v>3.487568393753201e-06</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -2833,13 +2833,13 @@
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>4.379236774049127</v>
+        <v>4.379845234669704</v>
       </c>
       <c r="B155" t="n">
-        <v>0.0001788296996013865</v>
+        <v>0.0001211699482547004</v>
       </c>
       <c r="C155" t="n">
-        <v>5.071461770627668e-06</v>
+        <v>3.489222180422646e-06</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -2849,13 +2849,13 @@
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>4.379845234669704</v>
+        <v>4.382493323849399</v>
       </c>
       <c r="B156" t="n">
-        <v>0.0001809833050499902</v>
+        <v>0.0001208193038828718</v>
       </c>
       <c r="C156" t="n">
-        <v>5.139613048737604e-06</v>
+        <v>3.397775284360294e-06</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -2865,13 +2865,13 @@
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>4.382493323849399</v>
+        <v>4.386743978325545</v>
       </c>
       <c r="B157" t="n">
-        <v>0.0001798164912673991</v>
+        <v>0.0001066696036486944</v>
       </c>
       <c r="C157" t="n">
-        <v>4.980055903741966e-06</v>
+        <v>2.88711394620859e-06</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -2881,13 +2881,13 @@
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>4.386743978325545</v>
+        <v>4.391003202669586</v>
       </c>
       <c r="B158" t="n">
-        <v>0.0001586975596237607</v>
+        <v>9.271403551196339e-05</v>
       </c>
       <c r="C158" t="n">
-        <v>4.235595990875637e-06</v>
+        <v>2.690982138437851e-06</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -2897,13 +2897,13 @@
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>4.391003202669586</v>
+        <v>4.395073889919927</v>
       </c>
       <c r="B159" t="n">
-        <v>0.0001391339596469012</v>
+        <v>8.816842111172245e-05</v>
       </c>
       <c r="C159" t="n">
-        <v>3.97884401361063e-06</v>
+        <v>2.379035195834072e-06</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -2913,13 +2913,13 @@
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>4.395073889919927</v>
+        <v>4.396290811161082</v>
       </c>
       <c r="B160" t="n">
-        <v>0.000129259582410683</v>
+        <v>8.599710710864717e-05</v>
       </c>
       <c r="C160" t="n">
-        <v>3.447792152230697e-06</v>
+        <v>2.504552700620037e-06</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -2929,13 +2929,13 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>4.396290811161082</v>
+        <v>4.399607350036622</v>
       </c>
       <c r="B161" t="n">
-        <v>0.000126413214372375</v>
+        <v>0.0001065970059101856</v>
       </c>
       <c r="C161" t="n">
-        <v>3.617916295307384e-06</v>
+        <v>2.757214043132886e-06</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -2945,13 +2945,13 @@
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>4.399607350036622</v>
+        <v>4.403952273059619</v>
       </c>
       <c r="B162" t="n">
-        <v>0.0001587280995454347</v>
+        <v>0.0001849546508203854</v>
       </c>
       <c r="C162" t="n">
-        <v>4.055408348024176e-06</v>
+        <v>4.506045783891458e-06</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -2961,13 +2961,13 @@
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>4.403952273059619</v>
+        <v>4.406326126466659</v>
       </c>
       <c r="B163" t="n">
-        <v>0.0002762939196107573</v>
+        <v>0.0002273727176250479</v>
       </c>
       <c r="C163" t="n">
-        <v>6.699316845696365e-06</v>
+        <v>5.350430745086286e-06</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -2977,13 +2977,13 @@
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>4.406326126466659</v>
+        <v>4.408974215646356</v>
       </c>
       <c r="B164" t="n">
-        <v>0.0003348661844436274</v>
+        <v>0.000241850347195317</v>
       </c>
       <c r="C164" t="n">
-        <v>7.832183590459986e-06</v>
+        <v>5.646308047603407e-06</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -2993,13 +2993,13 @@
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>4.408974215646356</v>
+        <v>4.411759422712378</v>
       </c>
       <c r="B165" t="n">
-        <v>0.0003564984043427819</v>
+        <v>0.0002472864292717167</v>
       </c>
       <c r="C165" t="n">
-        <v>8.282366888916345e-06</v>
+        <v>5.816842576263461e-06</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -3009,13 +3009,13 @@
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>4.411759422712378</v>
+        <v>4.41349053602726</v>
       </c>
       <c r="B166" t="n">
-        <v>0.0003623482079790716</v>
+        <v>0.0002519289788509245</v>
       </c>
       <c r="C166" t="n">
-        <v>8.471779372805636e-06</v>
+        <v>6.038189820848181e-06</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -3025,13 +3025,13 @@
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>4.41349053602726</v>
+        <v>4.414321813213119</v>
       </c>
       <c r="B167" t="n">
-        <v>0.0003716258431152371</v>
+        <v>0.0002537184996205051</v>
       </c>
       <c r="C167" t="n">
-        <v>8.82984364774151e-06</v>
+        <v>5.821068751694704e-06</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -3041,13 +3041,13 @@
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>4.414321813213119</v>
+        <v>4.419515153157765</v>
       </c>
       <c r="B168" t="n">
-        <v>0.0003773174227116752</v>
+        <v>0.0002454570459951823</v>
       </c>
       <c r="C168" t="n">
-        <v>8.623622853005843e-06</v>
+        <v>5.601002104268472e-06</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -3057,13 +3057,13 @@
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>4.419515153157765</v>
+        <v>4.421511932377406</v>
       </c>
       <c r="B169" t="n">
-        <v>0.000362774181707773</v>
+        <v>0.0002252661632429881</v>
       </c>
       <c r="C169" t="n">
-        <v>8.24367540278084e-06</v>
+        <v>5.084582152049911e-06</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -3073,13 +3073,13 @@
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>4.421511932377406</v>
+        <v>4.430664551289752</v>
       </c>
       <c r="B170" t="n">
-        <v>0.0003342946148933026</v>
+        <v>0.0001415680531670075</v>
       </c>
       <c r="C170" t="n">
-        <v>7.533768819346125e-06</v>
+        <v>3.389576263203296e-06</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -3089,13 +3089,13 @@
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>4.430664551289752</v>
+        <v>4.447624319854858</v>
       </c>
       <c r="B171" t="n">
-        <v>0.0002098598480215547</v>
+        <v>9.233420437968237e-05</v>
       </c>
       <c r="C171" t="n">
-        <v>4.991342152100158e-06</v>
+        <v>2.154488710260362e-06</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -3105,13 +3105,13 @@
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>4.447624319854858</v>
+        <v>4.464926883135782</v>
       </c>
       <c r="B172" t="n">
-        <v>0.0001367935798510084</v>
+        <v>8.419718988585551e-05</v>
       </c>
       <c r="C172" t="n">
-        <v>3.17523991860403e-06</v>
+        <v>2.022082528520615e-06</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -3121,13 +3121,13 @@
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>4.464926883135782</v>
+        <v>4.482066618926692</v>
       </c>
       <c r="B173" t="n">
-        <v>0.0001255481062307427</v>
+        <v>9.745026840402588e-05</v>
       </c>
       <c r="C173" t="n">
-        <v>2.993042705108437e-06</v>
+        <v>2.49986129151777e-06</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -3137,13 +3137,13 @@
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>4.482066618926692</v>
+        <v>4.490182283823687</v>
       </c>
       <c r="B174" t="n">
-        <v>0.0001451948996666279</v>
+        <v>0.0001369266488330788</v>
       </c>
       <c r="C174" t="n">
-        <v>3.675348351214444e-06</v>
+        <v>3.205151656689635e-06</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -3153,13 +3153,13 @@
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>4.490182283823687</v>
+        <v>4.493233156794469</v>
       </c>
       <c r="B175" t="n">
-        <v>0.0002033629357396572</v>
+        <v>0.0001529703243506324</v>
       </c>
       <c r="C175" t="n">
-        <v>4.74000248113727e-06</v>
+        <v>3.867820541385215e-06</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -3169,13 +3169,13 @@
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>4.493233156794469</v>
+        <v>4.499292053396556</v>
       </c>
       <c r="B176" t="n">
-        <v>0.0002250078656281502</v>
+        <v>0.0002325417422859975</v>
       </c>
       <c r="C176" t="n">
-        <v>5.617632496602924e-06</v>
+        <v>5.908742587858088e-06</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -3185,13 +3185,13 @@
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>4.499292053396556</v>
+        <v>4.507699093801998</v>
       </c>
       <c r="B177" t="n">
-        <v>0.0003418223565192877</v>
+        <v>0.0003099691982310474</v>
       </c>
       <c r="C177" t="n">
-        <v>8.580865562912871e-06</v>
+        <v>7.575001921597853e-06</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -3201,13 +3201,13 @@
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>4.507699093801998</v>
+        <v>4.512069726428679</v>
       </c>
       <c r="B178" t="n">
-        <v>0.0004606227542224462</v>
+        <v>0.0003230032053109591</v>
       </c>
       <c r="C178" t="n">
-        <v>1.118909247718224e-05</v>
+        <v>8.313469411457473e-06</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -3217,13 +3217,13 @@
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>4.512069726428679</v>
+        <v>4.516303241169035</v>
       </c>
       <c r="B179" t="n">
-        <v>0.000480921322394668</v>
+        <v>0.0003111060546336464</v>
       </c>
       <c r="C179" t="n">
-        <v>1.222902169715382e-05</v>
+        <v>8.094337469962261e-06</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -3233,13 +3233,13 @@
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>4.516303241169035</v>
+        <v>4.520571035380971</v>
       </c>
       <c r="B180" t="n">
-        <v>0.0004581650356769631</v>
+        <v>0.0002811354379809007</v>
       </c>
       <c r="C180" t="n">
-        <v>1.176936521646227e-05</v>
+        <v>7.544100777634696e-06</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -3249,13 +3249,13 @@
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>4.520571035380971</v>
+        <v>4.520622454588343</v>
       </c>
       <c r="B181" t="n">
-        <v>0.000409411088449274</v>
+        <v>0.0002784075371153608</v>
       </c>
       <c r="C181" t="n">
-        <v>1.083763211834171e-05</v>
+        <v>6.798301441864984e-06</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -3265,13 +3265,13 @@
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>4.520622454588343</v>
+        <v>4.524727421310266</v>
       </c>
       <c r="B182" t="n">
-        <v>0.0004121030792705593</v>
+        <v>0.0002496076177388872</v>
       </c>
       <c r="C182" t="n">
-        <v>9.961086466960192e-06</v>
+        <v>7.236651146845969e-06</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -3281,13 +3281,13 @@
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>4.524727421310266</v>
+        <v>4.529132333408531</v>
       </c>
       <c r="B183" t="n">
-        <v>0.0003653073238187476</v>
+        <v>0.0002127388886521917</v>
       </c>
       <c r="C183" t="n">
-        <v>1.046106443328154e-05</v>
+        <v>6.773640174560957e-06</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -3297,13 +3297,13 @@
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>4.529132333408531</v>
+        <v>4.533597234582063</v>
       </c>
       <c r="B184" t="n">
-        <v>0.0003096211811717615</v>
+        <v>0.0001949570547108702</v>
       </c>
       <c r="C184" t="n">
-        <v>9.673774947462921e-06</v>
+        <v>5.618797335949491e-06</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -3313,13 +3313,13 @@
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>4.533597234582063</v>
+        <v>4.535979657856999</v>
       </c>
       <c r="B185" t="n">
-        <v>0.0002836794488741865</v>
+        <v>0.0001918415410961279</v>
       </c>
       <c r="C185" t="n">
-        <v>8.125189225116785e-06</v>
+        <v>5.635344461578799e-06</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -3329,13 +3329,13 @@
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>4.535979657856999</v>
+        <v>4.540033205371549</v>
       </c>
       <c r="B186" t="n">
-        <v>0.0002879401104195223</v>
+        <v>0.0001902101695717868</v>
       </c>
       <c r="C186" t="n">
-        <v>8.272888540660509e-06</v>
+        <v>5.036813301944953e-06</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -3345,13 +3345,13 @@
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>4.540033205371549</v>
+        <v>4.541790028290118</v>
       </c>
       <c r="B187" t="n">
-        <v>0.0002812082918764282</v>
+        <v>0.0001882995976859306</v>
       </c>
       <c r="C187" t="n">
-        <v>7.369404917839989e-06</v>
+        <v>5.208846734355941e-06</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -3361,13 +3361,13 @@
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>4.541790028290118</v>
+        <v>4.54406961315031</v>
       </c>
       <c r="B188" t="n">
-        <v>0.0002789913701197042</v>
+        <v>0.0001767845168106176</v>
       </c>
       <c r="C188" t="n">
-        <v>7.593944477523301e-06</v>
+        <v>5.021467728281479e-06</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -3377,13 +3377,13 @@
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>4.54406961315031</v>
+        <v>4.54908298586915</v>
       </c>
       <c r="B189" t="n">
-        <v>0.0002626354502740884</v>
+        <v>0.0001988761842748653</v>
       </c>
       <c r="C189" t="n">
-        <v>7.354349455566015e-06</v>
+        <v>4.959523926561286e-06</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -3393,13 +3393,13 @@
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>4.54908298586915</v>
+        <v>4.553067974440538</v>
       </c>
       <c r="B190" t="n">
-        <v>0.0002945385923755391</v>
+        <v>0.0002296897737491856</v>
       </c>
       <c r="C190" t="n">
-        <v>7.287328069711172e-06</v>
+        <v>5.730455449189398e-06</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -3409,13 +3409,13 @@
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>4.553067974440538</v>
+        <v>4.557044393144028</v>
       </c>
       <c r="B191" t="n">
-        <v>0.0003413252131505258</v>
+        <v>0.0002609951062288512</v>
       </c>
       <c r="C191" t="n">
-        <v>8.458617935491363e-06</v>
+        <v>6.398938478962966e-06</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -3425,13 +3425,13 @@
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>4.557044393144028</v>
+        <v>4.561577853260723</v>
       </c>
       <c r="B192" t="n">
-        <v>0.0003873352567419974</v>
+        <v>0.0002962219134575351</v>
       </c>
       <c r="C192" t="n">
-        <v>9.440126804133253e-06</v>
+        <v>7.07180140451223e-06</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -3441,13 +3441,13 @@
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>4.561577853260723</v>
+        <v>4.56575137892581</v>
       </c>
       <c r="B193" t="n">
-        <v>0.0004371765650503262</v>
+        <v>0.0003439231828168512</v>
       </c>
       <c r="C193" t="n">
-        <v>1.034367220648316e-05</v>
+        <v>8.106098408907306e-06</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -3457,13 +3457,13 @@
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>4.56575137892581</v>
+        <v>4.570207710231447</v>
       </c>
       <c r="B194" t="n">
-        <v>0.0005084402050387626</v>
+        <v>0.0003890598420051698</v>
       </c>
       <c r="C194" t="n">
-        <v>1.189777793737795e-05</v>
+        <v>9.162679455997065e-06</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -3473,13 +3473,13 @@
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>4.570207710231447</v>
+        <v>4.570233419835134</v>
       </c>
       <c r="B195" t="n">
-        <v>0.0005752537881205118</v>
+        <v>0.0003709883750739037</v>
       </c>
       <c r="C195" t="n">
-        <v>1.346881870182147e-05</v>
+        <v>8.531549369878616e-06</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -3489,13 +3489,13 @@
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>4.570233419835134</v>
+        <v>4.574141279595461</v>
       </c>
       <c r="B196" t="n">
-        <v>0.0005501653655814011</v>
+        <v>0.0003749157563009049</v>
       </c>
       <c r="C196" t="n">
-        <v>1.261463171763105e-05</v>
+        <v>8.519571816877566e-06</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -3505,13 +3505,13 @@
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>4.574141279595461</v>
+        <v>4.578657599976365</v>
       </c>
       <c r="B197" t="n">
-        <v>0.0005483262143721019</v>
+        <v>0.0003374848580031055</v>
       </c>
       <c r="C197" t="n">
-        <v>1.240711779000638e-05</v>
+        <v>7.687114638061279e-06</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -3521,13 +3521,13 @@
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>4.578657599976365</v>
+        <v>4.578820427466379</v>
       </c>
       <c r="B198" t="n">
-        <v>0.0005004035995253925</v>
+        <v>0.0003315565408277864</v>
       </c>
       <c r="C198" t="n">
-        <v>1.135314007137669e-05</v>
+        <v>7.46139424752458e-06</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -3537,13 +3537,13 @@
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>4.578820427466379</v>
+        <v>4.582256944492457</v>
       </c>
       <c r="B199" t="n">
-        <v>0.0004909967684430626</v>
+        <v>0.0002945697218428833</v>
       </c>
       <c r="C199" t="n">
-        <v>1.102963402287044e-05</v>
+        <v>6.650610947571693e-06</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -3553,13 +3553,13 @@
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>4.582256944492457</v>
+        <v>4.583388167054657</v>
       </c>
       <c r="B200" t="n">
-        <v>0.0004364559862523</v>
+        <v>0.0002825518522778923</v>
       </c>
       <c r="C200" t="n">
-        <v>9.835365989743975e-06</v>
+        <v>6.308343903105439e-06</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -3569,13 +3569,13 @@
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>4.583388167054657</v>
+        <v>4.583662402827311</v>
       </c>
       <c r="B201" t="n">
-        <v>0.0004186155211255627</v>
+        <v>0.0002753785995543116</v>
       </c>
       <c r="C201" t="n">
-        <v>9.345455412609477e-06</v>
+        <v>6.142050649388578e-06</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -3585,13 +3585,13 @@
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>4.583662402827311</v>
+        <v>4.586636146987034</v>
       </c>
       <c r="B202" t="n">
-        <v>0.0004078579866087921</v>
+        <v>0.0003511987163355977</v>
       </c>
       <c r="C202" t="n">
-        <v>9.09005234891918e-06</v>
+        <v>8.103523438175696e-06</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -3601,13 +3601,13 @@
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>4.586636146987034</v>
+        <v>4.58796447651083</v>
       </c>
       <c r="B203" t="n">
-        <v>0.0005208276875228143</v>
+        <v>0.0003072041915850527</v>
       </c>
       <c r="C203" t="n">
-        <v>1.196976052123072e-05</v>
+        <v>6.776140435589064e-06</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -3617,13 +3617,13 @@
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>4.58796447651083</v>
+        <v>4.591649519705875</v>
       </c>
       <c r="B204" t="n">
-        <v>0.0004540872823982046</v>
+        <v>0.0003256632248796593</v>
       </c>
       <c r="C204" t="n">
-        <v>1.000796123072449e-05</v>
+        <v>7.669238755149771e-06</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -3633,13 +3633,13 @@
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>4.591649519705875</v>
+        <v>4.593303504209699</v>
       </c>
       <c r="B205" t="n">
-        <v>0.0004802726122059146</v>
+        <v>0.0002955128106657019</v>
       </c>
       <c r="C205" t="n">
-        <v>1.122416261166869e-05</v>
+        <v>6.965179118877571e-06</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -3649,13 +3649,13 @@
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>4.591709508781143</v>
+        <v>4.595068896996162</v>
       </c>
       <c r="B206" t="n">
-        <v>0.0005224570746281767</v>
+        <v>0.0002774616925699016</v>
       </c>
       <c r="C206" t="n">
-        <v>1.167077533779974e-05</v>
+        <v>6.583462613560762e-06</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -3665,13 +3665,13 @@
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>4.593303504209699</v>
+        <v>4.596757160971567</v>
       </c>
       <c r="B207" t="n">
-        <v>0.0004369572234169936</v>
+        <v>0.0002636577314520728</v>
       </c>
       <c r="C207" t="n">
-        <v>1.024908609569504e-05</v>
+        <v>6.28165006047511e-06</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -3681,13 +3681,13 @@
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>4.595068896996162</v>
+        <v>4.598633962040672</v>
       </c>
       <c r="B208" t="n">
-        <v>0.0004113022033583369</v>
+        <v>0.0002482000117187046</v>
       </c>
       <c r="C208" t="n">
-        <v>9.703829635954295e-06</v>
+        <v>5.996512284915938e-06</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -3697,13 +3697,13 @@
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>4.596757160971567</v>
+        <v>4.600339365751868</v>
       </c>
       <c r="B209" t="n">
-        <v>0.0003904624484664802</v>
+        <v>0.000229638772543721</v>
       </c>
       <c r="C209" t="n">
-        <v>9.239042109682117e-06</v>
+        <v>5.274759560531406e-06</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -3713,13 +3713,13 @@
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>4.598633962040672</v>
+        <v>4.601719114483036</v>
       </c>
       <c r="B210" t="n">
-        <v>0.0003666861477546075</v>
+        <v>0.000232783065995398</v>
       </c>
       <c r="C210" t="n">
-        <v>8.778464083709565e-06</v>
+        <v>5.543261266697815e-06</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -3729,13 +3729,13 @@
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>4.600339365751868</v>
+        <v>4.606132596449195</v>
       </c>
       <c r="B211" t="n">
-        <v>0.0003402404330485959</v>
+        <v>0.0001199122663674994</v>
       </c>
       <c r="C211" t="n">
-        <v>7.778717368888731e-06</v>
+        <v>2.78709009077414e-06</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -3745,13 +3745,13 @@
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>4.600536472713462</v>
+        <v>4.610666056565891</v>
       </c>
       <c r="B212" t="n">
-        <v>0.0003655350782827957</v>
+        <v>4.969835278029997e-05</v>
       </c>
       <c r="C212" t="n">
-        <v>8.293699665336776e-06</v>
+        <v>1.251913723394324e-06</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -3761,13 +3761,13 @@
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>4.601719114483036</v>
+        <v>4.613091329180303</v>
       </c>
       <c r="B213" t="n">
-        <v>0.0003456317235534005</v>
+        <v>3.083400906506781e-05</v>
       </c>
       <c r="C213" t="n">
-        <v>8.188305729116887e-06</v>
+        <v>8.003870754657303e-07</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -3777,13 +3777,13 @@
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>4.603295970175799</v>
+        <v>4.613451263631914</v>
       </c>
       <c r="B214" t="n">
-        <v>0.0004115155583106197</v>
+        <v>4.352151316491228e-05</v>
       </c>
       <c r="C214" t="n">
-        <v>9.26918018948313e-06</v>
+        <v>1.0522204227474e-06</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -3793,13 +3793,13 @@
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>4.604949954679621</v>
+        <v>4.613896896762476</v>
       </c>
       <c r="B215" t="n">
-        <v>0.0002855085741792334</v>
+        <v>2.707097121328581e-05</v>
       </c>
       <c r="C215" t="n">
-        <v>6.424718055115619e-06</v>
+        <v>6.849733249669361e-07</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -3809,13 +3809,13 @@
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>4.606132596449195</v>
+        <v>4.615696569020522</v>
       </c>
       <c r="B216" t="n">
-        <v>0.0001778644989133921</v>
+        <v>2.202146782133933e-05</v>
       </c>
       <c r="C216" t="n">
-        <v>4.120757062673105e-06</v>
+        <v>5.636590487583302e-07</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -3825,13 +3825,13 @@
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>4.610666056565891</v>
+        <v>4.619038817499749</v>
       </c>
       <c r="B217" t="n">
-        <v>7.306983276644436e-05</v>
+        <v>1.886652949228223e-05</v>
       </c>
       <c r="C217" t="n">
-        <v>1.82223865580358e-06</v>
+        <v>4.686690544387301e-07</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -3841,13 +3841,13 @@
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>4.613091329180303</v>
+        <v>4.621798314962087</v>
       </c>
       <c r="B218" t="n">
-        <v>4.531852329987476e-05</v>
+        <v>1.949256770175509e-05</v>
       </c>
       <c r="C218" t="n">
-        <v>1.162691605750973e-06</v>
+        <v>4.985130869698332e-07</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -3857,13 +3857,13 @@
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>4.613451263631914</v>
+        <v>4.630650988498092</v>
       </c>
       <c r="B219" t="n">
-        <v>6.418590087740392e-05</v>
+        <v>2.737386301300021e-05</v>
       </c>
       <c r="C219" t="n">
-        <v>1.539163216356746e-06</v>
+        <v>6.552313259866959e-07</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -3873,13 +3873,13 @@
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>4.613896896762476</v>
+        <v>4.639795037542543</v>
       </c>
       <c r="B220" t="n">
-        <v>4.011168303657466e-05</v>
+        <v>5.134748437428754e-05</v>
       </c>
       <c r="C220" t="n">
-        <v>1.003759994562765e-06</v>
+        <v>1.183062397843683e-06</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -3889,13 +3889,13 @@
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>4.615696569020522</v>
+        <v>4.64860486173907</v>
       </c>
       <c r="B221" t="n">
-        <v>3.253937951257727e-05</v>
+        <v>5.749407947633022e-05</v>
       </c>
       <c r="C221" t="n">
-        <v>8.228327173093554e-07</v>
+        <v>1.324554877071822e-06</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -3905,13 +3905,13 @@
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>4.619038817499749</v>
+        <v>4.658074565763548</v>
       </c>
       <c r="B222" t="n">
-        <v>2.773249719516591e-05</v>
+        <v>5.053571319550639e-05</v>
       </c>
       <c r="C222" t="n">
-        <v>6.770722152319065e-07</v>
+        <v>1.146393750304085e-06</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -3921,111 +3921,15 @@
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>4.621798314962087</v>
+        <v>4.661373964903298</v>
       </c>
       <c r="B223" t="n">
-        <v>2.802278264587918e-05</v>
+        <v>4.51255200109887e-05</v>
       </c>
       <c r="C223" t="n">
-        <v>6.982904779564518e-07</v>
+        <v>1.051442730470158e-06</v>
       </c>
       <c r="D223" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>4.630650988498092</v>
-      </c>
-      <c r="B224" t="n">
-        <v>4.070447864468124e-05</v>
-      </c>
-      <c r="C224" t="n">
-        <v>9.688728885865174e-07</v>
-      </c>
-      <c r="D224" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>4.639795037542543</v>
-      </c>
-      <c r="B225" t="n">
-        <v>7.574182510797006e-05</v>
-      </c>
-      <c r="C225" t="n">
-        <v>1.734252504629526e-06</v>
-      </c>
-      <c r="D225" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>4.64860486173907</v>
-      </c>
-      <c r="B226" t="n">
-        <v>8.477073942835932e-05</v>
-      </c>
-      <c r="C226" t="n">
-        <v>1.94242442231877e-06</v>
-      </c>
-      <c r="D226" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>4.658074565763548</v>
-      </c>
-      <c r="B227" t="n">
-        <v>7.472288651521213e-05</v>
-      </c>
-      <c r="C227" t="n">
-        <v>1.687481593651344e-06</v>
-      </c>
-      <c r="D227" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>4.661373964903298</v>
-      </c>
-      <c r="B228" t="n">
-        <v>6.646966576803413e-05</v>
-      </c>
-      <c r="C228" t="n">
-        <v>1.536494275737376e-06</v>
-      </c>
-      <c r="D228" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>4.662710864294989</v>
-      </c>
-      <c r="B229" t="n">
-        <v>6.848573980519988e-05</v>
-      </c>
-      <c r="C229" t="n">
-        <v>1.644559992698047e-06</v>
-      </c>
-      <c r="D229" t="inlineStr">
         <is>
           <t>4</t>
         </is>
